--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_재비산_TSP.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_재비산_TSP.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_TSP</t>
+  </si>
+  <si>
+    <t>02_taxi_TSP</t>
+  </si>
+  <si>
+    <t>03_van_TSP</t>
+  </si>
+  <si>
+    <t>04_bus_TSP</t>
+  </si>
+  <si>
+    <t>05_LightTruck_TSP</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_TSP</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_TSP</t>
+  </si>
+  <si>
+    <t>Total_TSP (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1298 +397,1417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_TSP</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_TSP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_TSP</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_TSP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_TSP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_TSP</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_TSP (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>231.861444771432</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>30.1393401186287</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>109.3251888536458</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>24.63595228910642</v>
+      </c>
+      <c r="F2">
         <v>99.5595501693444</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>98.14857308813671</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>6.622077365046064</v>
       </c>
-      <c r="H2" t="n">
-        <v>575.6561743662337</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>600.2921266553401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>241.0889262927263</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>26.429882873259</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>100.2147564491753</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>24.63595228910642</v>
+      </c>
+      <c r="F3">
         <v>78.04456263274878</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>84.61083886908339</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>9.105356376938337</v>
       </c>
-      <c r="H3" t="n">
-        <v>539.494323493931</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>564.1302757830374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>254.1751728138345</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>28.28461149594384</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>98.69635104843024</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>23.09620527103728</v>
+      </c>
+      <c r="F4">
         <v>88.16926264997026</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>76.14975498217504</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>8.277596706307582</v>
       </c>
-      <c r="H4" t="n">
-        <v>553.7527496966615</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>576.8489549676988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>252.8329936834645</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>20.86569700520447</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>91.10432404470485</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>23.09620527103728</v>
+      </c>
+      <c r="F5">
         <v>89.01298765140537</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>57.5353704309767</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>6.622077365046064</v>
       </c>
-      <c r="H5" t="n">
-        <v>517.9734501808019</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>541.0696554518393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>261.3893856395739</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>25.03883640624537</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>107.8067834529007</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>29.25519334331387</v>
+      </c>
+      <c r="F6">
         <v>76.35711262987853</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>60.91980398574004</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>4.966558023784547</v>
       </c>
-      <c r="H6" t="n">
-        <v>536.4784801381231</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>565.733673481437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>266.7581021610542</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>21.7930613165469</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>112.361999655136</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>27.71544632524473</v>
+      </c>
+      <c r="F7">
         <v>67.0761376140922</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>49.07428654406836</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>10.76087571819985</v>
       </c>
-      <c r="H7" t="n">
-        <v>527.8244630090975</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>555.5399093343423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>292.2595056380858</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>24.11147209490295</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>106.2883780521556</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>52.35139861435113</v>
+      </c>
+      <c r="F8">
         <v>72.98221262413804</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>32.15211877025168</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>9.105356376938337</v>
       </c>
-      <c r="H8" t="n">
-        <v>536.8990435564724</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>589.2504421708236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>322.4585360714124</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>20.40201484953326</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>101.7331618499204</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>95.46431512028735</v>
+      </c>
+      <c r="F9">
         <v>68.34172511624489</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>32.15211877025168</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>5.794317694415305</v>
       </c>
-      <c r="H9" t="n">
-        <v>550.881874351778</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>646.3461894720654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>309.8756067241929</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>23.18410778356053</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>126.0276482618417</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>115.4810263551864</v>
+      </c>
+      <c r="F10">
         <v>36.7020375624278</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>23.69103488334335</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>2.483279011892273</v>
       </c>
-      <c r="H10" t="n">
-        <v>521.9637142272585</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>637.4447405824449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>224.1439147718039</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>19.01096838251964</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>89.58591864395974</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>92.38482108414911</v>
+      </c>
+      <c r="F11">
         <v>18.98381253229025</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>20.30660132858001</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>2.483279011892273</v>
       </c>
-      <c r="H11" t="n">
-        <v>374.5144946710458</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>466.8993157551949</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>187.401761077923</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>20.86569700520447</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>78.95708083874416</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>72.36810984925012</v>
+      </c>
+      <c r="F12">
         <v>16.87450002870244</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>25.38325166072503</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>3.311038682523032</v>
       </c>
-      <c r="H12" t="n">
-        <v>332.7933292938221</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>405.1614391430722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>154.6861447751521</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>13.91046467013632</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>63.77302683129339</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>53.8911456324203</v>
+      </c>
+      <c r="F13">
         <v>8.437250014351221</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>11.84551744167167</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>1.655519341261516</v>
       </c>
-      <c r="H13" t="n">
-        <v>254.3079230738662</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>308.1990687062866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>118.4473082551599</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>12.51941820312269</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>33.40491881639178</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>24.63595228910642</v>
+      </c>
+      <c r="F14">
         <v>10.54656251793902</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>8.461083886908337</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>2.483279011892273</v>
       </c>
-      <c r="H14" t="n">
-        <v>185.862570691414</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>210.4985229805204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>69.62554238794806</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>5.564185868054527</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>18.22086480894097</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>15.39747018069152</v>
+      </c>
+      <c r="F15">
         <v>8.437250014351221</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>11.84551744167167</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.8277596706307581</v>
       </c>
-      <c r="H15" t="n">
-        <v>114.5211201915972</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>129.9185903722887</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>56.03597869295098</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>10.66468958043784</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>21.25767561043113</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>4.619241054207456</v>
+      </c>
+      <c r="F16">
         <v>4.640487507893171</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>13.53773421905334</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.8277596706307581</v>
       </c>
-      <c r="H16" t="n">
-        <v>106.9643252813972</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>111.5835663356047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>35.56774695480723</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>14.37414682580753</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>10.62883780521556</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>1.539747018069151</v>
+      </c>
+      <c r="F17">
         <v>9.702837516503903</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>13.53773421905334</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>83.81130332138757</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>85.35105033945672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>24.32699673795776</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>12.51941820312269</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>10.62883780521556</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>1.539747018069151</v>
+      </c>
+      <c r="F18">
         <v>5.062350008610733</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>18.61438455119834</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>71.15198730610507</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>72.69173432417423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>25.16585869443907</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>10.66468958043784</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>15.18405400745081</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>7.698735090345758</v>
+      </c>
+      <c r="F19">
         <v>8.85911251506878</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>15.22995099643501</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>75.10366579383151</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>82.80240088417726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>43.11750456313894</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>6.491550179396949</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>22.77608101117621</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>4.619241054207456</v>
+      </c>
+      <c r="F20">
         <v>17.71822503013756</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>18.61438455119834</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>108.717745335048</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>113.3369863892555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>99.99234521257121</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>5.564185868054527</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>53.14418902607782</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>58.51038668662774</v>
+      </c>
+      <c r="F21">
         <v>30.37410005166439</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>49.07428654406836</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.8277596706307581</v>
       </c>
-      <c r="H21" t="n">
-        <v>238.9768663730671</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>297.4872530596948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>178.0065071653324</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>18.54728622684843</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>95.65954024694007</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>150.8952077707768</v>
+      </c>
+      <c r="F22">
         <v>50.62350008610733</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>76.14975498217504</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>4.138798353153791</v>
       </c>
-      <c r="H22" t="n">
-        <v>423.125387060557</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>574.0205948313339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>246.4576428142065</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>9.273643113424214</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>63.77302683129339</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>126.2592554816704</v>
+      </c>
+      <c r="F23">
         <v>59.90447510189367</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>69.38088787264839</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>8.277596706307582</v>
       </c>
-      <c r="H23" t="n">
-        <v>457.0672724397738</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>583.3265279214442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>288.4007406382718</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>11.12837173610905</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>78.95708083874416</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>55.43089265048946</v>
+      </c>
+      <c r="F24">
         <v>63.7012376083517</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>96.45635631075508</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>6.622077365046064</v>
       </c>
-      <c r="H24" t="n">
-        <v>545.2658644972778</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>600.6967571477672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>232.8680791192095</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>22.72042562788932</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>103.2515672506655</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>41.57316948786708</v>
+      </c>
+      <c r="F25">
         <v>81.41946263848931</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>113.3785240845717</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>3.311038682523032</v>
       </c>
-      <c r="H25" t="n">
-        <v>556.9490974033484</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>598.5222668912155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>238.4045680319862</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>25.03883640624537</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>98.69635104843024</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>24.63595228910642</v>
+      </c>
+      <c r="F26">
         <v>106.3093501808254</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>116.7629576393351</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>8.277596706307582</v>
       </c>
-      <c r="H26" t="n">
-        <v>593.4896600131299</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>618.1256123022363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>234.2102582495796</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>30.1393401186287</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>88.06751324321466</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>20.01671123489896</v>
+      </c>
+      <c r="F27">
         <v>88.16926264997026</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>108.3018737524267</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>7.449837035676821</v>
       </c>
-      <c r="H27" t="n">
-        <v>556.3380850494968</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>576.3547962843959</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>239.0756575971712</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>23.18410778356053</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>77.43867543799909</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>29.25519334331387</v>
+      </c>
+      <c r="F28">
         <v>74.66966262700831</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>79.53418853693839</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>10.76087571819985</v>
       </c>
-      <c r="H28" t="n">
-        <v>504.6631677008774</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>533.9183610441912</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>253.0007660747607</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>20.86569700520447</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>112.361999655136</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>38.49367545172878</v>
+      </c>
+      <c r="F29">
         <v>85.21622514494734</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>77.84197175955673</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>10.76087571819985</v>
       </c>
-      <c r="H29" t="n">
-        <v>560.047535357805</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>598.5412108095338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>222.1306460762489</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>19.93833269386205</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>113.880405055881</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>24.63595228910642</v>
+      </c>
+      <c r="F30">
         <v>77.62270013203123</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>45.68985298930502</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>6.622077365046064</v>
       </c>
-      <c r="H30" t="n">
-        <v>485.8840143123743</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>510.5199666014807</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>261.2216132482777</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>15.30151113714995</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>81.99389164023434</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>23.09620527103728</v>
+      </c>
+      <c r="F31">
         <v>75.93525012916099</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>71.07310465003006</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>12.41639505946137</v>
       </c>
-      <c r="H31" t="n">
-        <v>517.9417658643143</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>541.0379711353515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>298.4670841160474</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>20.40201484953326</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>98.69635104843024</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>50.811651596282</v>
+      </c>
+      <c r="F32">
         <v>73.40407512485561</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>57.5353704309767</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>7.449837035676821</v>
       </c>
-      <c r="H32" t="n">
-        <v>555.9547326055201</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>606.7663842018021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>327.3239354190042</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>15.30151113714995</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>74.40186463650895</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>86.22583301187245</v>
+      </c>
+      <c r="F33">
         <v>59.90447510189367</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>28.76768521548835</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>5.794317694415305</v>
       </c>
-      <c r="H33" t="n">
-        <v>511.4937892044605</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>597.7196222163328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>341.5845886791862</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>10.66468958043784</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>85.0307024417245</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>110.8617853009789</v>
+      </c>
+      <c r="F34">
         <v>40.49880006888586</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>15.22995099643501</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>4.138798353153791</v>
       </c>
-      <c r="H34" t="n">
-        <v>497.1475301198232</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>608.0093154208022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>239.5789747710598</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>9.73732526909542</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>69.84664843427372</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>83.14633897573417</v>
+      </c>
+      <c r="F35">
         <v>23.62430004018342</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>25.38325166072503</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>4.138798353153791</v>
       </c>
-      <c r="H35" t="n">
-        <v>372.3092985284912</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>455.4556375042254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>212.0643025984733</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>6.491550179396949</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>47.0705674230975</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>89.3053270480108</v>
+      </c>
+      <c r="F36">
         <v>18.56195003157269</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>23.69103488334335</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>5.794317694415305</v>
       </c>
-      <c r="H36" t="n">
-        <v>313.673722810299</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>402.9790498583098</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>169.6178876005194</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>6.491550179396949</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>51.62578362533273</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>49.27190457821283</v>
+      </c>
+      <c r="F37">
         <v>16.45263752798488</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>15.22995099643501</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>3.311038682523032</v>
       </c>
-      <c r="H37" t="n">
-        <v>262.728848612192</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>312.0007531904049</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>130.5269204284907</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>11.12837173610905</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>30.36810801490162</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>24.63595228910642</v>
+      </c>
+      <c r="F38">
         <v>12.23401252080927</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>15.22995099643501</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>1.655519341261516</v>
       </c>
-      <c r="H38" t="n">
-        <v>201.1428830380071</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>225.7788353271136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>81.53738216998259</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>8.809960957753002</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>21.25767561043113</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>10.77822912648406</v>
+      </c>
+      <c r="F39">
         <v>6.327937510763417</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>10.15330066429</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.8277596706307581</v>
       </c>
-      <c r="H39" t="n">
-        <v>128.9140165838509</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>139.692245710335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>61.90801238832011</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>19.01096838251964</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>16.70245940819589</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>6.158988072276604</v>
+      </c>
+      <c r="F40">
         <v>5.906075010045854</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>18.61438455119834</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>1.655519341261516</v>
       </c>
-      <c r="H40" t="n">
-        <v>123.7974190815413</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>129.9564071538179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>44.29191130221275</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>14.37414682580753</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>10.62883780521556</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>1.539747018069151</v>
+      </c>
+      <c r="F41">
         <v>10.54656251793902</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>18.61438455119834</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41">
         <v>0.8277596706307581</v>
       </c>
-      <c r="H41" t="n">
-        <v>99.28360267300397</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>100.8233496910731</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>32.7156163027708</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>8.346278802081791</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>16.70245940819589</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>3.079494036138302</v>
+      </c>
+      <c r="F42">
         <v>5.484212509328294</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>16.92216777381667</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>80.17073479619344</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>83.25022883233174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>25.66917586832786</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>7.418914490739369</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>16.70245940819589</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>3.079494036138302</v>
+      </c>
+      <c r="F43">
         <v>6.749800011480978</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>23.69103488334335</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43">
         <v>0.8277596706307581</v>
       </c>
-      <c r="H43" t="n">
-        <v>81.05914433271819</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>84.13863836885649</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>42.27864260665763</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>6.027868023725738</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>18.22086480894097</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>4.619241054207456</v>
+      </c>
+      <c r="F44">
         <v>18.56195003157269</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>23.69103488334335</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>108.7803603542404</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>113.3996014084478</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>100.49566238646</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>5.100503712383316</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>28.84970261415653</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>49.27190457821283</v>
+      </c>
+      <c r="F45">
         <v>40.49880006888586</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>50.76650332145005</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>1.655519341261516</v>
       </c>
-      <c r="H45" t="n">
-        <v>227.3666914445972</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>276.6385960228101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>183.7107684694053</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>5.100503712383316</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>62.2546214305483</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>150.8952077707768</v>
+      </c>
+      <c r="F46">
         <v>51.46722508754245</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>99.84078986551842</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>3.311038682523032</v>
       </c>
-      <c r="H46" t="n">
-        <v>405.6849472479208</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>556.5801550186976</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>250.8197249879094</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>7.88259664641058</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>78.95708083874416</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>120.1002674093938</v>
+      </c>
+      <c r="F47">
         <v>53.57653759113025</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>81.22640531432003</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>5.794317694415305</v>
       </c>
-      <c r="H47" t="n">
-        <v>478.2566630729298</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>598.3569304823236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>276.8244456388298</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>11.59205389178026</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>91.10432404470485</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>61.58988072276606</v>
+      </c>
+      <c r="F48">
         <v>66.23241261265709</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>84.61083886908339</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>7.449837035676821</v>
       </c>
-      <c r="H48" t="n">
-        <v>537.8139120927323</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>599.4037928154983</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>232.8680791192095</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>22.72042562788932</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>103.2515672506655</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>41.57316948786708</v>
+      </c>
+      <c r="F49">
         <v>81.41946263848931</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>113.3785240845717</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>3.311038682523032</v>
       </c>
-      <c r="H49" t="n">
-        <v>556.9490974033484</v>
+      <c r="I49">
+        <v>598.5222668912155</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_재비산_TSP.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>231.861444771432</v>
+        <v>336.0982855947626</v>
       </c>
       <c r="C2">
-        <v>30.1393401186287</v>
+        <v>43.68893911109045</v>
       </c>
       <c r="D2">
-        <v>109.3251888536458</v>
+        <v>158.4739911469805</v>
       </c>
       <c r="E2">
-        <v>24.63595228910642</v>
+        <v>35.71141953560035</v>
       </c>
       <c r="F2">
-        <v>99.5595501693444</v>
+        <v>144.3180609846062</v>
       </c>
       <c r="G2">
-        <v>98.14857308813671</v>
+        <v>142.2727576851512</v>
       </c>
       <c r="H2">
-        <v>6.622077365046064</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I2">
-        <v>600.2921266553401</v>
+        <v>870.1625870734364</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>241.0889262927263</v>
+        <v>349.4741218521519</v>
       </c>
       <c r="C3">
-        <v>26.429882873259</v>
+        <v>38.31183891280241</v>
       </c>
       <c r="D3">
-        <v>100.2147564491753</v>
+        <v>145.2678252180654</v>
       </c>
       <c r="E3">
-        <v>24.63595228910642</v>
+        <v>35.71141953560035</v>
       </c>
       <c r="F3">
-        <v>78.04456263274878</v>
+        <v>113.1306833989498</v>
       </c>
       <c r="G3">
-        <v>84.61083886908339</v>
+        <v>122.6489290389235</v>
       </c>
       <c r="H3">
-        <v>9.105356376938337</v>
+        <v>13.19880789596192</v>
       </c>
       <c r="I3">
-        <v>564.1302757830374</v>
+        <v>817.7436258524554</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>254.1751728138345</v>
+        <v>368.4434896353585</v>
       </c>
       <c r="C4">
-        <v>28.28461149594384</v>
+        <v>41.00038901194642</v>
       </c>
       <c r="D4">
-        <v>98.69635104843024</v>
+        <v>143.0667975632463</v>
       </c>
       <c r="E4">
-        <v>23.09620527103728</v>
+        <v>33.47945581462533</v>
       </c>
       <c r="F4">
-        <v>88.16926264997026</v>
+        <v>127.8070963804352</v>
       </c>
       <c r="G4">
-        <v>76.14975498217504</v>
+        <v>110.3840361350311</v>
       </c>
       <c r="H4">
-        <v>8.277596706307582</v>
+        <v>11.99891626905629</v>
       </c>
       <c r="I4">
-        <v>576.8489549676988</v>
+        <v>836.1801808096991</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>252.8329936834645</v>
+        <v>366.4979134524656</v>
       </c>
       <c r="C5">
-        <v>20.86569700520447</v>
+        <v>30.24618861537032</v>
       </c>
       <c r="D5">
-        <v>91.10432404470485</v>
+        <v>132.0616592891504</v>
       </c>
       <c r="E5">
-        <v>23.09620527103728</v>
+        <v>33.47945581462533</v>
       </c>
       <c r="F5">
-        <v>89.01298765140537</v>
+        <v>129.030130795559</v>
       </c>
       <c r="G5">
-        <v>57.5353704309767</v>
+        <v>83.40127174646796</v>
       </c>
       <c r="H5">
-        <v>6.622077365046064</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I5">
-        <v>541.0696554518393</v>
+        <v>784.3157527288836</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>261.3893856395739</v>
+        <v>378.9009616184082</v>
       </c>
       <c r="C6">
-        <v>25.03883640624537</v>
+        <v>36.29542633844438</v>
       </c>
       <c r="D6">
-        <v>107.8067834529007</v>
+        <v>156.2729634921613</v>
       </c>
       <c r="E6">
-        <v>29.25519334331387</v>
+        <v>42.40731069852541</v>
       </c>
       <c r="F6">
-        <v>76.35711262987853</v>
+        <v>110.6846145687022</v>
       </c>
       <c r="G6">
-        <v>60.91980398574004</v>
+        <v>88.30722890802494</v>
       </c>
       <c r="H6">
-        <v>4.966558023784547</v>
+        <v>7.199349761433776</v>
       </c>
       <c r="I6">
-        <v>565.733673481437</v>
+        <v>820.0678553857003</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>266.7581021610542</v>
+        <v>386.6832663499802</v>
       </c>
       <c r="C7">
-        <v>21.7930613165469</v>
+        <v>31.59046366494233</v>
       </c>
       <c r="D7">
-        <v>112.361999655136</v>
+        <v>162.8760464566189</v>
       </c>
       <c r="E7">
-        <v>27.71544632524473</v>
+        <v>40.17534697755039</v>
       </c>
       <c r="F7">
-        <v>67.0761376140922</v>
+        <v>97.23123600234062</v>
       </c>
       <c r="G7">
-        <v>49.07428654406836</v>
+        <v>71.13637884257562</v>
       </c>
       <c r="H7">
-        <v>10.76087571819985</v>
+        <v>15.59859114977318</v>
       </c>
       <c r="I7">
-        <v>555.5399093343423</v>
+        <v>805.2913294437811</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>292.2595056380858</v>
+        <v>423.6492138249468</v>
       </c>
       <c r="C8">
-        <v>24.11147209490295</v>
+        <v>34.95115128887237</v>
       </c>
       <c r="D8">
-        <v>106.2883780521556</v>
+        <v>154.0719358373421</v>
       </c>
       <c r="E8">
-        <v>52.35139861435113</v>
+        <v>75.88676651315073</v>
       </c>
       <c r="F8">
-        <v>72.98221262413804</v>
+        <v>105.7924769082071</v>
       </c>
       <c r="G8">
-        <v>32.15211877025168</v>
+        <v>46.60659303479093</v>
       </c>
       <c r="H8">
-        <v>9.105356376938337</v>
+        <v>13.19880789596192</v>
       </c>
       <c r="I8">
-        <v>589.2504421708236</v>
+        <v>854.1569453032719</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>322.4585360714124</v>
+        <v>467.4246779400393</v>
       </c>
       <c r="C9">
-        <v>20.40201484953326</v>
+        <v>29.57405109058431</v>
       </c>
       <c r="D9">
-        <v>101.7331618499204</v>
+        <v>147.4688528728846</v>
       </c>
       <c r="E9">
-        <v>95.46431512028735</v>
+        <v>138.3817507004514</v>
       </c>
       <c r="F9">
-        <v>68.34172511624489</v>
+        <v>99.06578762502629</v>
       </c>
       <c r="G9">
-        <v>32.15211877025168</v>
+        <v>46.60659303479093</v>
       </c>
       <c r="H9">
-        <v>5.794317694415305</v>
+        <v>8.399241388339403</v>
       </c>
       <c r="I9">
-        <v>646.3461894720654</v>
+        <v>936.9209546521161</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>309.8756067241929</v>
+        <v>449.1849012254173</v>
       </c>
       <c r="C10">
-        <v>23.18410778356053</v>
+        <v>33.60687623930036</v>
       </c>
       <c r="D10">
-        <v>126.0276482618417</v>
+        <v>182.6852953499914</v>
       </c>
       <c r="E10">
-        <v>115.4810263551864</v>
+        <v>167.3972790731266</v>
       </c>
       <c r="F10">
-        <v>36.7020375624278</v>
+        <v>53.2019970578845</v>
       </c>
       <c r="G10">
-        <v>23.69103488334335</v>
+        <v>34.34170013089857</v>
       </c>
       <c r="H10">
-        <v>2.483279011892273</v>
+        <v>3.599674880716888</v>
       </c>
       <c r="I10">
-        <v>637.4447405824449</v>
+        <v>924.0177239573355</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>224.1439147718039</v>
+        <v>324.9112225431281</v>
       </c>
       <c r="C11">
-        <v>19.01096838251964</v>
+        <v>27.55763851622629</v>
       </c>
       <c r="D11">
-        <v>89.58591864395974</v>
+        <v>129.8606316343312</v>
       </c>
       <c r="E11">
-        <v>92.38482108414911</v>
+        <v>133.9178232585013</v>
       </c>
       <c r="F11">
-        <v>18.98381253229025</v>
+        <v>27.51827434028508</v>
       </c>
       <c r="G11">
-        <v>20.30660132858001</v>
+        <v>29.43574296934164</v>
       </c>
       <c r="H11">
-        <v>2.483279011892273</v>
+        <v>3.599674880716888</v>
       </c>
       <c r="I11">
-        <v>466.8993157551949</v>
+        <v>676.8010081425305</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>187.401761077923</v>
+        <v>271.6510745364326</v>
       </c>
       <c r="C12">
-        <v>20.86569700520447</v>
+        <v>30.24618861537032</v>
       </c>
       <c r="D12">
-        <v>78.95708083874416</v>
+        <v>114.453438050597</v>
       </c>
       <c r="E12">
-        <v>72.36810984925012</v>
+        <v>104.9022948858261</v>
       </c>
       <c r="F12">
-        <v>16.87450002870244</v>
+        <v>24.46068830247562</v>
       </c>
       <c r="G12">
-        <v>25.38325166072503</v>
+        <v>36.79467871167707</v>
       </c>
       <c r="H12">
-        <v>3.311038682523032</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I12">
-        <v>405.1614391430722</v>
+        <v>587.3079296100013</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>154.6861447751521</v>
+        <v>224.2276550784164</v>
       </c>
       <c r="C13">
-        <v>13.91046467013632</v>
+        <v>20.16412574358021</v>
       </c>
       <c r="D13">
-        <v>63.77302683129339</v>
+        <v>92.44316150240525</v>
       </c>
       <c r="E13">
-        <v>53.8911456324203</v>
+        <v>78.11873023412576</v>
       </c>
       <c r="F13">
-        <v>8.437250014351221</v>
+        <v>12.23034415123781</v>
       </c>
       <c r="G13">
-        <v>11.84551744167167</v>
+        <v>17.17085006544929</v>
       </c>
       <c r="H13">
-        <v>1.655519341261516</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I13">
-        <v>308.1990687062866</v>
+        <v>446.754650029026</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>118.4473082551599</v>
+        <v>171.6970981403057</v>
       </c>
       <c r="C14">
-        <v>12.51941820312269</v>
+        <v>18.14771316922219</v>
       </c>
       <c r="D14">
-        <v>33.40491881639178</v>
+        <v>48.4226084060218</v>
       </c>
       <c r="E14">
-        <v>24.63595228910642</v>
+        <v>35.71141953560035</v>
       </c>
       <c r="F14">
-        <v>10.54656251793902</v>
+        <v>15.28793018904727</v>
       </c>
       <c r="G14">
-        <v>8.461083886908337</v>
+        <v>12.26489290389235</v>
       </c>
       <c r="H14">
-        <v>2.483279011892273</v>
+        <v>3.599674880716888</v>
       </c>
       <c r="I14">
-        <v>210.4985229805204</v>
+        <v>305.1313372248065</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>69.62554238794806</v>
+        <v>100.9267644875734</v>
       </c>
       <c r="C15">
-        <v>5.564185868054527</v>
+        <v>8.065650297432086</v>
       </c>
       <c r="D15">
-        <v>18.22086480894097</v>
+        <v>26.41233185783008</v>
       </c>
       <c r="E15">
-        <v>15.39747018069152</v>
+        <v>22.31963720975023</v>
       </c>
       <c r="F15">
-        <v>8.437250014351221</v>
+        <v>12.23034415123781</v>
       </c>
       <c r="G15">
-        <v>11.84551744167167</v>
+        <v>17.17085006544929</v>
       </c>
       <c r="H15">
-        <v>0.8277596706307581</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I15">
-        <v>129.9185903722887</v>
+        <v>188.3254696961785</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>56.03597869295098</v>
+        <v>81.22780563578202</v>
       </c>
       <c r="C16">
-        <v>10.66468958043784</v>
+        <v>15.45916307007816</v>
       </c>
       <c r="D16">
-        <v>21.25767561043113</v>
+        <v>30.81438716746842</v>
       </c>
       <c r="E16">
-        <v>4.619241054207456</v>
+        <v>6.695891162925068</v>
       </c>
       <c r="F16">
-        <v>4.640487507893171</v>
+        <v>6.726689283180797</v>
       </c>
       <c r="G16">
-        <v>13.53773421905334</v>
+        <v>19.62382864622776</v>
       </c>
       <c r="H16">
-        <v>0.8277596706307581</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I16">
-        <v>111.5835663356047</v>
+        <v>161.7476565925679</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>35.56774695480723</v>
+        <v>51.55776884666405</v>
       </c>
       <c r="C17">
-        <v>14.37414682580753</v>
+        <v>20.83626326836622</v>
       </c>
       <c r="D17">
-        <v>10.62883780521556</v>
+        <v>15.40719358373421</v>
       </c>
       <c r="E17">
-        <v>1.539747018069151</v>
+        <v>2.231963720975022</v>
       </c>
       <c r="F17">
-        <v>9.702837516503903</v>
+        <v>14.06489577392349</v>
       </c>
       <c r="G17">
-        <v>13.53773421905334</v>
+        <v>19.62382864622776</v>
       </c>
       <c r="I17">
-        <v>85.35105033945672</v>
+        <v>123.7219138398907</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>24.32699673795776</v>
+        <v>35.26356831493529</v>
       </c>
       <c r="C18">
-        <v>12.51941820312269</v>
+        <v>18.14771316922219</v>
       </c>
       <c r="D18">
-        <v>10.62883780521556</v>
+        <v>15.40719358373421</v>
       </c>
       <c r="E18">
-        <v>1.539747018069151</v>
+        <v>2.231963720975022</v>
       </c>
       <c r="F18">
-        <v>5.062350008610733</v>
+        <v>7.338206490742689</v>
       </c>
       <c r="G18">
-        <v>18.61438455119834</v>
+        <v>26.98276438856317</v>
       </c>
       <c r="I18">
-        <v>72.69173432417423</v>
+        <v>105.3714096681726</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,25 +925,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>25.16585869443907</v>
+        <v>36.47955342924342</v>
       </c>
       <c r="C19">
-        <v>10.66468958043784</v>
+        <v>15.45916307007816</v>
       </c>
       <c r="D19">
-        <v>15.18405400745081</v>
+        <v>22.01027654819174</v>
       </c>
       <c r="E19">
-        <v>7.698735090345758</v>
+        <v>11.15981860487511</v>
       </c>
       <c r="F19">
-        <v>8.85911251506878</v>
+        <v>12.8418613587997</v>
       </c>
       <c r="G19">
-        <v>15.22995099643501</v>
+        <v>22.07680722700623</v>
       </c>
       <c r="I19">
-        <v>82.80240088417726</v>
+        <v>120.0274802381944</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -951,25 +951,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>43.11750456313894</v>
+        <v>62.50163487543703</v>
       </c>
       <c r="C20">
-        <v>6.491550179396949</v>
+        <v>9.409925347004098</v>
       </c>
       <c r="D20">
-        <v>22.77608101117621</v>
+        <v>33.0154148222876</v>
       </c>
       <c r="E20">
-        <v>4.619241054207456</v>
+        <v>6.695891162925068</v>
       </c>
       <c r="F20">
-        <v>17.71822503013756</v>
+        <v>25.68372271759941</v>
       </c>
       <c r="G20">
-        <v>18.61438455119834</v>
+        <v>26.98276438856317</v>
       </c>
       <c r="I20">
-        <v>113.3369863892555</v>
+        <v>164.2893533138163</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>99.99234521257121</v>
+        <v>144.9454256255272</v>
       </c>
       <c r="C21">
-        <v>5.564185868054527</v>
+        <v>8.065650297432086</v>
       </c>
       <c r="D21">
-        <v>53.14418902607782</v>
+        <v>77.03596791867106</v>
       </c>
       <c r="E21">
-        <v>58.51038668662774</v>
+        <v>84.81462139705081</v>
       </c>
       <c r="F21">
-        <v>30.37410005166439</v>
+        <v>44.02923894445613</v>
       </c>
       <c r="G21">
-        <v>49.07428654406836</v>
+        <v>71.13637884257562</v>
       </c>
       <c r="H21">
-        <v>0.8277596706307581</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I21">
-        <v>297.4872530596948</v>
+        <v>431.2271746526185</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>178.0065071653324</v>
+        <v>258.0320412561818</v>
       </c>
       <c r="C22">
-        <v>18.54728622684843</v>
+        <v>26.88550099144028</v>
       </c>
       <c r="D22">
-        <v>95.65954024694007</v>
+        <v>138.664742253608</v>
       </c>
       <c r="E22">
-        <v>150.8952077707768</v>
+        <v>218.7324446555522</v>
       </c>
       <c r="F22">
-        <v>50.62350008610733</v>
+        <v>73.38206490742687</v>
       </c>
       <c r="G22">
-        <v>76.14975498217504</v>
+        <v>110.3840361350311</v>
       </c>
       <c r="H22">
-        <v>4.138798353153791</v>
+        <v>5.999458134528146</v>
       </c>
       <c r="I22">
-        <v>574.0205948313339</v>
+        <v>832.0802883337684</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>246.4576428142065</v>
+        <v>357.2564265837237</v>
       </c>
       <c r="C23">
-        <v>9.273643113424214</v>
+        <v>13.44275049572014</v>
       </c>
       <c r="D23">
-        <v>63.77302683129339</v>
+        <v>92.44316150240525</v>
       </c>
       <c r="E23">
-        <v>126.2592554816704</v>
+        <v>183.0210251199518</v>
       </c>
       <c r="F23">
-        <v>59.90447510189367</v>
+        <v>86.83544347378846</v>
       </c>
       <c r="G23">
-        <v>69.38088787264839</v>
+        <v>100.5721218119173</v>
       </c>
       <c r="H23">
-        <v>8.277596706307582</v>
+        <v>11.99891626905629</v>
       </c>
       <c r="I23">
-        <v>583.3265279214442</v>
+        <v>845.569845256563</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>288.4007406382718</v>
+        <v>418.0556822991294</v>
       </c>
       <c r="C24">
-        <v>11.12837173610905</v>
+        <v>16.13130059486417</v>
       </c>
       <c r="D24">
-        <v>78.95708083874416</v>
+        <v>114.453438050597</v>
       </c>
       <c r="E24">
-        <v>55.43089265048946</v>
+        <v>80.35069395510078</v>
       </c>
       <c r="F24">
-        <v>63.7012376083517</v>
+        <v>92.33909834184549</v>
       </c>
       <c r="G24">
-        <v>96.45635631075508</v>
+        <v>139.8197791043728</v>
       </c>
       <c r="H24">
-        <v>6.622077365046064</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I24">
-        <v>600.6967571477672</v>
+        <v>870.7491253611546</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>232.8680791192095</v>
+        <v>337.5574677319324</v>
       </c>
       <c r="C25">
-        <v>22.72042562788932</v>
+        <v>32.93473871451435</v>
       </c>
       <c r="D25">
-        <v>103.2515672506655</v>
+        <v>149.6698805277038</v>
       </c>
       <c r="E25">
-        <v>41.57316948786708</v>
+        <v>60.26302046632561</v>
       </c>
       <c r="F25">
-        <v>81.41946263848931</v>
+        <v>118.0228210594449</v>
       </c>
       <c r="G25">
-        <v>113.3785240845717</v>
+        <v>164.3495649121575</v>
       </c>
       <c r="H25">
-        <v>3.311038682523032</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I25">
-        <v>598.5222668912155</v>
+        <v>867.5970599197012</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>238.4045680319862</v>
+        <v>345.582969486366</v>
       </c>
       <c r="C26">
-        <v>25.03883640624537</v>
+        <v>36.29542633844438</v>
       </c>
       <c r="D26">
-        <v>98.69635104843024</v>
+        <v>143.0667975632463</v>
       </c>
       <c r="E26">
-        <v>24.63595228910642</v>
+        <v>35.71141953560035</v>
       </c>
       <c r="F26">
-        <v>106.3093501808254</v>
+        <v>154.1023363055965</v>
       </c>
       <c r="G26">
-        <v>116.7629576393351</v>
+        <v>169.2555220737144</v>
       </c>
       <c r="H26">
-        <v>8.277596706307582</v>
+        <v>11.99891626905629</v>
       </c>
       <c r="I26">
-        <v>618.1256123022363</v>
+        <v>896.0133875720243</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>234.2102582495796</v>
+        <v>339.5030439148255</v>
       </c>
       <c r="C27">
-        <v>30.1393401186287</v>
+        <v>43.68893911109045</v>
       </c>
       <c r="D27">
-        <v>88.06751324321466</v>
+        <v>127.6596039795121</v>
       </c>
       <c r="E27">
-        <v>20.01671123489896</v>
+        <v>29.01552837267528</v>
       </c>
       <c r="F27">
-        <v>88.16926264997026</v>
+        <v>127.8070963804352</v>
       </c>
       <c r="G27">
-        <v>108.3018737524267</v>
+        <v>156.9906291698221</v>
       </c>
       <c r="H27">
-        <v>7.449837035676821</v>
+        <v>10.79902464215066</v>
       </c>
       <c r="I27">
-        <v>576.3547962843959</v>
+        <v>835.4638655705112</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>239.0756575971712</v>
+        <v>346.5557575778124</v>
       </c>
       <c r="C28">
-        <v>23.18410778356053</v>
+        <v>33.60687623930036</v>
       </c>
       <c r="D28">
-        <v>77.43867543799909</v>
+        <v>112.2524103957778</v>
       </c>
       <c r="E28">
-        <v>29.25519334331387</v>
+        <v>42.40731069852541</v>
       </c>
       <c r="F28">
-        <v>74.66966262700831</v>
+        <v>108.2385457384547</v>
       </c>
       <c r="G28">
-        <v>79.53418853693839</v>
+        <v>115.2899932965881</v>
       </c>
       <c r="H28">
-        <v>10.76087571819985</v>
+        <v>15.59859114977318</v>
       </c>
       <c r="I28">
-        <v>533.9183610441912</v>
+        <v>773.9494850962318</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>253.0007660747607</v>
+        <v>366.741110475327</v>
       </c>
       <c r="C29">
-        <v>20.86569700520447</v>
+        <v>30.24618861537032</v>
       </c>
       <c r="D29">
-        <v>112.361999655136</v>
+        <v>162.8760464566189</v>
       </c>
       <c r="E29">
-        <v>38.49367545172878</v>
+        <v>55.79909302437554</v>
       </c>
       <c r="F29">
-        <v>85.21622514494734</v>
+        <v>123.5264759275019</v>
       </c>
       <c r="G29">
-        <v>77.84197175955673</v>
+        <v>112.8370147158096</v>
       </c>
       <c r="H29">
-        <v>10.76087571819985</v>
+        <v>15.59859114977318</v>
       </c>
       <c r="I29">
-        <v>598.5412108095338</v>
+        <v>867.6245203647765</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>222.1306460762489</v>
+        <v>321.9928582687884</v>
       </c>
       <c r="C30">
-        <v>19.93833269386205</v>
+        <v>28.9019135657983</v>
       </c>
       <c r="D30">
-        <v>113.880405055881</v>
+        <v>165.077074111438</v>
       </c>
       <c r="E30">
-        <v>24.63595228910642</v>
+        <v>35.71141953560035</v>
       </c>
       <c r="F30">
-        <v>77.62270013203123</v>
+        <v>112.5191661913879</v>
       </c>
       <c r="G30">
-        <v>45.68985298930502</v>
+        <v>66.23042168101868</v>
       </c>
       <c r="H30">
-        <v>6.622077365046064</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I30">
-        <v>510.5199666014807</v>
+        <v>740.0319863692766</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>261.2216132482777</v>
+        <v>378.6577645955468</v>
       </c>
       <c r="C31">
-        <v>15.30151113714995</v>
+        <v>22.18053831793823</v>
       </c>
       <c r="D31">
-        <v>81.99389164023434</v>
+        <v>118.8554933602354</v>
       </c>
       <c r="E31">
-        <v>23.09620527103728</v>
+        <v>33.47945581462533</v>
       </c>
       <c r="F31">
-        <v>75.93525012916099</v>
+        <v>110.0730973611403</v>
       </c>
       <c r="G31">
-        <v>71.07310465003006</v>
+        <v>103.0251003926957</v>
       </c>
       <c r="H31">
-        <v>12.41639505946137</v>
+        <v>17.99837440358444</v>
       </c>
       <c r="I31">
-        <v>541.0379711353515</v>
+        <v>784.2698242457661</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>298.4670841160474</v>
+        <v>432.6475036708269</v>
       </c>
       <c r="C32">
-        <v>20.40201484953326</v>
+        <v>29.57405109058431</v>
       </c>
       <c r="D32">
-        <v>98.69635104843024</v>
+        <v>143.0667975632463</v>
       </c>
       <c r="E32">
-        <v>50.811651596282</v>
+        <v>73.65480279217573</v>
       </c>
       <c r="F32">
-        <v>73.40407512485561</v>
+        <v>106.403994115769</v>
       </c>
       <c r="G32">
-        <v>57.5353704309767</v>
+        <v>83.40127174646796</v>
       </c>
       <c r="H32">
-        <v>7.449837035676821</v>
+        <v>10.79902464215066</v>
       </c>
       <c r="I32">
-        <v>606.7663842018021</v>
+        <v>879.547445621221</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>327.3239354190042</v>
+        <v>474.4773916030261</v>
       </c>
       <c r="C33">
-        <v>15.30151113714995</v>
+        <v>22.18053831793823</v>
       </c>
       <c r="D33">
-        <v>74.40186463650895</v>
+        <v>107.8503550861395</v>
       </c>
       <c r="E33">
-        <v>86.22583301187245</v>
+        <v>124.9899683746012</v>
       </c>
       <c r="F33">
-        <v>59.90447510189367</v>
+        <v>86.83544347378846</v>
       </c>
       <c r="G33">
-        <v>28.76768521548835</v>
+        <v>41.70063587323398</v>
       </c>
       <c r="H33">
-        <v>5.794317694415305</v>
+        <v>8.399241388339403</v>
       </c>
       <c r="I33">
-        <v>597.7196222163328</v>
+        <v>866.433574117067</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,28 +1354,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>341.5845886791862</v>
+        <v>495.1491385462641</v>
       </c>
       <c r="C34">
-        <v>10.66468958043784</v>
+        <v>15.45916307007816</v>
       </c>
       <c r="D34">
-        <v>85.0307024417245</v>
+        <v>123.2575486698737</v>
       </c>
       <c r="E34">
-        <v>110.8617853009789</v>
+        <v>160.7013879102016</v>
       </c>
       <c r="F34">
-        <v>40.49880006888586</v>
+        <v>58.70565192594151</v>
       </c>
       <c r="G34">
-        <v>15.22995099643501</v>
+        <v>22.07680722700623</v>
       </c>
       <c r="H34">
-        <v>4.138798353153791</v>
+        <v>5.999458134528146</v>
       </c>
       <c r="I34">
-        <v>608.0093154208022</v>
+        <v>881.3491554838935</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1383,28 +1383,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>239.5789747710598</v>
+        <v>347.2853486463972</v>
       </c>
       <c r="C35">
-        <v>9.73732526909542</v>
+        <v>14.11488802050615</v>
       </c>
       <c r="D35">
-        <v>69.84664843427372</v>
+        <v>101.247272121682</v>
       </c>
       <c r="E35">
-        <v>83.14633897573417</v>
+        <v>120.5260409326512</v>
       </c>
       <c r="F35">
-        <v>23.62430004018342</v>
+        <v>34.24496362346588</v>
       </c>
       <c r="G35">
-        <v>25.38325166072503</v>
+        <v>36.79467871167707</v>
       </c>
       <c r="H35">
-        <v>4.138798353153791</v>
+        <v>5.999458134528146</v>
       </c>
       <c r="I35">
-        <v>455.4556375042254</v>
+        <v>660.2126501909077</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1412,28 +1412,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>212.0643025984733</v>
+        <v>307.4010368970914</v>
       </c>
       <c r="C36">
-        <v>6.491550179396949</v>
+        <v>9.409925347004098</v>
       </c>
       <c r="D36">
-        <v>47.0705674230975</v>
+        <v>68.23185729939436</v>
       </c>
       <c r="E36">
-        <v>89.3053270480108</v>
+        <v>129.4538958165513</v>
       </c>
       <c r="F36">
-        <v>18.56195003157269</v>
+        <v>26.90675713272319</v>
       </c>
       <c r="G36">
-        <v>23.69103488334335</v>
+        <v>34.34170013089857</v>
       </c>
       <c r="H36">
-        <v>5.794317694415305</v>
+        <v>8.399241388339403</v>
       </c>
       <c r="I36">
-        <v>402.9790498583098</v>
+        <v>584.1444140120024</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1441,28 +1441,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>169.6178876005194</v>
+        <v>245.8721901131007</v>
       </c>
       <c r="C37">
-        <v>6.491550179396949</v>
+        <v>9.409925347004098</v>
       </c>
       <c r="D37">
-        <v>51.62578362533273</v>
+        <v>74.83494026385189</v>
       </c>
       <c r="E37">
-        <v>49.27190457821283</v>
+        <v>71.4228390712007</v>
       </c>
       <c r="F37">
-        <v>16.45263752798488</v>
+        <v>23.84917109491374</v>
       </c>
       <c r="G37">
-        <v>15.22995099643501</v>
+        <v>22.07680722700623</v>
       </c>
       <c r="H37">
-        <v>3.311038682523032</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I37">
-        <v>312.0007531904049</v>
+        <v>452.2654396246999</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1470,28 +1470,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>130.5269204284907</v>
+        <v>189.2072837863425</v>
       </c>
       <c r="C38">
-        <v>11.12837173610905</v>
+        <v>16.13130059486417</v>
       </c>
       <c r="D38">
-        <v>30.36810801490162</v>
+        <v>44.02055309638349</v>
       </c>
       <c r="E38">
-        <v>24.63595228910642</v>
+        <v>35.71141953560035</v>
       </c>
       <c r="F38">
-        <v>12.23401252080927</v>
+        <v>17.73399901929483</v>
       </c>
       <c r="G38">
-        <v>15.22995099643501</v>
+        <v>22.07680722700623</v>
       </c>
       <c r="H38">
-        <v>1.655519341261516</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I38">
-        <v>225.7788353271136</v>
+        <v>327.2811465133029</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1499,28 +1499,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>81.53738216998259</v>
+        <v>118.1937531107487</v>
       </c>
       <c r="C39">
-        <v>8.809960957753002</v>
+        <v>12.77061297093413</v>
       </c>
       <c r="D39">
-        <v>21.25767561043113</v>
+        <v>30.81438716746842</v>
       </c>
       <c r="E39">
-        <v>10.77822912648406</v>
+        <v>15.62374604682515</v>
       </c>
       <c r="F39">
-        <v>6.327937510763417</v>
+        <v>9.172758113428358</v>
       </c>
       <c r="G39">
-        <v>10.15330066429</v>
+        <v>14.71787148467082</v>
       </c>
       <c r="H39">
-        <v>0.8277596706307581</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I39">
-        <v>139.692245710335</v>
+        <v>202.4930205209812</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1528,28 +1528,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>61.90801238832011</v>
+        <v>89.73970143593884</v>
       </c>
       <c r="C40">
-        <v>19.01096838251964</v>
+        <v>27.55763851622629</v>
       </c>
       <c r="D40">
-        <v>16.70245940819589</v>
+        <v>24.2113042030109</v>
       </c>
       <c r="E40">
-        <v>6.158988072276604</v>
+        <v>8.927854883900087</v>
       </c>
       <c r="F40">
-        <v>5.906075010045854</v>
+        <v>8.56124090586647</v>
       </c>
       <c r="G40">
-        <v>18.61438455119834</v>
+        <v>26.98276438856317</v>
       </c>
       <c r="H40">
-        <v>1.655519341261516</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I40">
-        <v>129.9564071538179</v>
+        <v>188.380287587317</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1557,28 +1557,28 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>44.29191130221275</v>
+        <v>64.20401403546843</v>
       </c>
       <c r="C41">
-        <v>14.37414682580753</v>
+        <v>20.83626326836622</v>
       </c>
       <c r="D41">
-        <v>10.62883780521556</v>
+        <v>15.40719358373421</v>
       </c>
       <c r="E41">
-        <v>1.539747018069151</v>
+        <v>2.231963720975022</v>
       </c>
       <c r="F41">
-        <v>10.54656251793902</v>
+        <v>15.28793018904727</v>
       </c>
       <c r="G41">
-        <v>18.61438455119834</v>
+        <v>26.98276438856317</v>
       </c>
       <c r="H41">
-        <v>0.8277596706307581</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I41">
-        <v>100.8233496910731</v>
+        <v>146.15002081306</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1586,25 +1586,25 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>32.7156163027708</v>
+        <v>47.42341945801645</v>
       </c>
       <c r="C42">
-        <v>8.346278802081791</v>
+        <v>12.09847544614813</v>
       </c>
       <c r="D42">
-        <v>16.70245940819589</v>
+        <v>24.2113042030109</v>
       </c>
       <c r="E42">
-        <v>3.079494036138302</v>
+        <v>4.463927441950044</v>
       </c>
       <c r="F42">
-        <v>5.484212509328294</v>
+        <v>7.949723698304579</v>
       </c>
       <c r="G42">
-        <v>16.92216777381667</v>
+        <v>24.52978580778471</v>
       </c>
       <c r="I42">
-        <v>83.25022883233174</v>
+        <v>120.6766360552148</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1612,28 +1612,28 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>25.66917586832786</v>
+        <v>37.2091444978283</v>
       </c>
       <c r="C43">
-        <v>7.418914490739369</v>
+        <v>10.75420039657611</v>
       </c>
       <c r="D43">
-        <v>16.70245940819589</v>
+        <v>24.2113042030109</v>
       </c>
       <c r="E43">
-        <v>3.079494036138302</v>
+        <v>4.463927441950044</v>
       </c>
       <c r="F43">
-        <v>6.749800011480978</v>
+        <v>9.78427532099025</v>
       </c>
       <c r="G43">
-        <v>23.69103488334335</v>
+        <v>34.34170013089857</v>
       </c>
       <c r="H43">
-        <v>0.8277596706307581</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I43">
-        <v>84.13863836885649</v>
+        <v>121.9644436181598</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>42.27864260665763</v>
+        <v>61.28564976112892</v>
       </c>
       <c r="C44">
-        <v>6.027868023725738</v>
+        <v>8.737787822218092</v>
       </c>
       <c r="D44">
-        <v>18.22086480894097</v>
+        <v>26.41233185783008</v>
       </c>
       <c r="E44">
-        <v>4.619241054207456</v>
+        <v>6.695891162925068</v>
       </c>
       <c r="F44">
-        <v>18.56195003157269</v>
+        <v>26.90675713272319</v>
       </c>
       <c r="G44">
-        <v>23.69103488334335</v>
+        <v>34.34170013089857</v>
       </c>
       <c r="I44">
-        <v>113.3996014084478</v>
+        <v>164.3801178677239</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>100.49566238646</v>
+        <v>145.6750166941121</v>
       </c>
       <c r="C45">
-        <v>5.100503712383316</v>
+        <v>7.393512772646078</v>
       </c>
       <c r="D45">
-        <v>28.84970261415653</v>
+        <v>41.81952544156431</v>
       </c>
       <c r="E45">
-        <v>49.27190457821283</v>
+        <v>71.4228390712007</v>
       </c>
       <c r="F45">
-        <v>40.49880006888586</v>
+        <v>58.70565192594151</v>
       </c>
       <c r="G45">
-        <v>50.76650332145005</v>
+        <v>73.58935742335413</v>
       </c>
       <c r="H45">
-        <v>1.655519341261516</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I45">
-        <v>276.6385960228101</v>
+        <v>401.0056865826301</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>183.7107684694053</v>
+        <v>266.300740033477</v>
       </c>
       <c r="C46">
-        <v>5.100503712383316</v>
+        <v>7.393512772646078</v>
       </c>
       <c r="D46">
-        <v>62.2546214305483</v>
+        <v>90.2421338475861</v>
       </c>
       <c r="E46">
-        <v>150.8952077707768</v>
+        <v>218.7324446555522</v>
       </c>
       <c r="F46">
-        <v>51.46722508754245</v>
+        <v>74.60509932255066</v>
       </c>
       <c r="G46">
-        <v>99.84078986551842</v>
+        <v>144.7257362659297</v>
       </c>
       <c r="H46">
-        <v>3.311038682523032</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I46">
-        <v>556.5801550186976</v>
+        <v>806.7992334053645</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>250.8197249879094</v>
+        <v>363.5795491781259</v>
       </c>
       <c r="C47">
-        <v>7.88259664641058</v>
+        <v>11.42633792136212</v>
       </c>
       <c r="D47">
-        <v>78.95708083874416</v>
+        <v>114.453438050597</v>
       </c>
       <c r="E47">
-        <v>120.1002674093938</v>
+        <v>174.0931702360517</v>
       </c>
       <c r="F47">
-        <v>53.57653759113025</v>
+        <v>77.66268536036013</v>
       </c>
       <c r="G47">
-        <v>81.22640531432003</v>
+        <v>117.7429718773666</v>
       </c>
       <c r="H47">
-        <v>5.794317694415305</v>
+        <v>8.399241388339403</v>
       </c>
       <c r="I47">
-        <v>598.3569304823236</v>
+        <v>867.3573940122029</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>276.8244456388298</v>
+        <v>401.2750877216778</v>
       </c>
       <c r="C48">
-        <v>11.59205389178026</v>
+        <v>16.80343811965018</v>
       </c>
       <c r="D48">
-        <v>91.10432404470485</v>
+        <v>132.0616592891504</v>
       </c>
       <c r="E48">
-        <v>61.58988072276606</v>
+        <v>89.2785488390009</v>
       </c>
       <c r="F48">
-        <v>66.23241261265709</v>
+        <v>96.00820158721685</v>
       </c>
       <c r="G48">
-        <v>84.61083886908339</v>
+        <v>122.6489290389235</v>
       </c>
       <c r="H48">
-        <v>7.449837035676821</v>
+        <v>10.79902464215066</v>
       </c>
       <c r="I48">
-        <v>599.4037928154983</v>
+        <v>868.8748892377703</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>232.8680791192095</v>
+        <v>337.5574677319324</v>
       </c>
       <c r="C49">
-        <v>22.72042562788932</v>
+        <v>32.93473871451435</v>
       </c>
       <c r="D49">
-        <v>103.2515672506655</v>
+        <v>149.6698805277038</v>
       </c>
       <c r="E49">
-        <v>41.57316948786708</v>
+        <v>60.26302046632561</v>
       </c>
       <c r="F49">
-        <v>81.41946263848931</v>
+        <v>118.0228210594449</v>
       </c>
       <c r="G49">
-        <v>113.3785240845717</v>
+        <v>164.3495649121575</v>
       </c>
       <c r="H49">
-        <v>3.311038682523032</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I49">
-        <v>598.5222668912155</v>
+        <v>867.5970599197012</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_재비산_TSP.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>336.0982855947626</v>
+        <v>228.4339277617674</v>
       </c>
       <c r="C2">
-        <v>43.68893911109045</v>
+        <v>29.69380204730983</v>
       </c>
       <c r="D2">
-        <v>158.4739911469805</v>
+        <v>107.7090773662441</v>
       </c>
       <c r="E2">
-        <v>35.71141953560035</v>
+        <v>24.2717686465718</v>
       </c>
       <c r="F2">
-        <v>144.3180609846062</v>
+        <v>98.08780029727583</v>
       </c>
       <c r="G2">
-        <v>142.2727576851512</v>
+        <v>96.69768113813819</v>
       </c>
       <c r="H2">
-        <v>9.599133015245032</v>
+        <v>6.524185786606252</v>
       </c>
       <c r="I2">
-        <v>870.1625870734364</v>
+        <v>591.4182430439134</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>349.4741218521519</v>
+        <v>237.525003034486</v>
       </c>
       <c r="C3">
-        <v>38.31183891280241</v>
+        <v>26.03918025687171</v>
       </c>
       <c r="D3">
-        <v>145.2678252180654</v>
+        <v>98.73332091905709</v>
       </c>
       <c r="E3">
-        <v>35.71141953560035</v>
+        <v>24.2717686465718</v>
       </c>
       <c r="F3">
-        <v>113.1306833989498</v>
+        <v>76.89086040252555</v>
       </c>
       <c r="G3">
-        <v>122.6489290389235</v>
+        <v>83.36006994667088</v>
       </c>
       <c r="H3">
-        <v>13.19880789596192</v>
+        <v>8.970755456583596</v>
       </c>
       <c r="I3">
-        <v>817.7436258524554</v>
+        <v>555.7909586627666</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>368.4434896353585</v>
+        <v>250.417800693978</v>
       </c>
       <c r="C4">
-        <v>41.00038901194642</v>
+        <v>27.86649115209076</v>
       </c>
       <c r="D4">
-        <v>143.0667975632463</v>
+        <v>97.23736151119255</v>
       </c>
       <c r="E4">
-        <v>33.47945581462533</v>
+        <v>22.75478310616106</v>
       </c>
       <c r="F4">
-        <v>127.8070963804352</v>
+        <v>86.86589094123157</v>
       </c>
       <c r="G4">
-        <v>110.3840361350311</v>
+        <v>75.02406295200377</v>
       </c>
       <c r="H4">
-        <v>11.99891626905629</v>
+        <v>8.155232233257816</v>
       </c>
       <c r="I4">
-        <v>836.1801808096991</v>
+        <v>568.3216225899156</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>366.4979134524656</v>
+        <v>249.0954624724916</v>
       </c>
       <c r="C5">
-        <v>30.24618861537032</v>
+        <v>20.5572475712145</v>
       </c>
       <c r="D5">
-        <v>132.0616592891504</v>
+        <v>89.75756447187008</v>
       </c>
       <c r="E5">
-        <v>33.47945581462533</v>
+        <v>22.75478310616106</v>
       </c>
       <c r="F5">
-        <v>129.030130795559</v>
+        <v>87.69714348612375</v>
       </c>
       <c r="G5">
-        <v>83.40127174646796</v>
+        <v>56.68484756373618</v>
       </c>
       <c r="H5">
-        <v>9.599133015245032</v>
+        <v>6.524185786606252</v>
       </c>
       <c r="I5">
-        <v>784.3157527288836</v>
+        <v>533.0712344582035</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>378.9009616184082</v>
+        <v>257.525368634467</v>
       </c>
       <c r="C6">
-        <v>36.29542633844438</v>
+        <v>24.6686970854574</v>
       </c>
       <c r="D6">
-        <v>156.2729634921613</v>
+        <v>106.2131179583796</v>
       </c>
       <c r="E6">
-        <v>42.40731069852541</v>
+        <v>28.82272526780403</v>
       </c>
       <c r="F6">
-        <v>110.6846145687022</v>
+        <v>75.22835531274123</v>
       </c>
       <c r="G6">
-        <v>88.30722890802494</v>
+        <v>60.01925036160301</v>
       </c>
       <c r="H6">
-        <v>7.199349761433776</v>
+        <v>4.89313933995469</v>
       </c>
       <c r="I6">
-        <v>820.0678553857003</v>
+        <v>557.3706539604069</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>386.6832663499802</v>
+        <v>262.8147215204125</v>
       </c>
       <c r="C7">
-        <v>31.59046366494233</v>
+        <v>21.47090301882403</v>
       </c>
       <c r="D7">
-        <v>162.8760464566189</v>
+        <v>110.7009961819731</v>
       </c>
       <c r="E7">
-        <v>40.17534697755039</v>
+        <v>27.30573972739328</v>
       </c>
       <c r="F7">
-        <v>97.23123600234062</v>
+        <v>66.08457731892736</v>
       </c>
       <c r="G7">
-        <v>71.13637884257562</v>
+        <v>48.3488405690691</v>
       </c>
       <c r="H7">
-        <v>15.59859114977318</v>
+        <v>10.60180190323516</v>
       </c>
       <c r="I7">
-        <v>805.2913294437811</v>
+        <v>547.3275802398346</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>423.6492138249468</v>
+        <v>287.939147728653</v>
       </c>
       <c r="C8">
-        <v>34.95115128887237</v>
+        <v>23.75504163784787</v>
       </c>
       <c r="D8">
-        <v>154.0719358373421</v>
+        <v>104.7171585505151</v>
       </c>
       <c r="E8">
-        <v>75.88676651315073</v>
+        <v>51.57750837396511</v>
       </c>
       <c r="F8">
-        <v>105.7924769082071</v>
+        <v>71.90334513317255</v>
       </c>
       <c r="G8">
-        <v>46.60659303479093</v>
+        <v>31.67682657973493</v>
       </c>
       <c r="H8">
-        <v>13.19880789596192</v>
+        <v>8.970755456583596</v>
       </c>
       <c r="I8">
-        <v>854.1569453032719</v>
+        <v>580.539783460472</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>467.4246779400393</v>
+        <v>317.6917577120961</v>
       </c>
       <c r="C9">
-        <v>29.57405109058431</v>
+        <v>20.10041984740973</v>
       </c>
       <c r="D9">
-        <v>147.4688528728846</v>
+        <v>100.2292803269216</v>
       </c>
       <c r="E9">
-        <v>138.3817507004514</v>
+        <v>94.05310350546573</v>
       </c>
       <c r="F9">
-        <v>99.06578762502629</v>
+        <v>67.33145613626561</v>
       </c>
       <c r="G9">
-        <v>46.60659303479093</v>
+        <v>31.67682657973493</v>
       </c>
       <c r="H9">
-        <v>8.399241388339403</v>
+        <v>5.708662563280472</v>
       </c>
       <c r="I9">
-        <v>936.9209546521161</v>
+        <v>636.7915066711741</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>449.1849012254173</v>
+        <v>305.2948368856616</v>
       </c>
       <c r="C10">
-        <v>33.60687623930036</v>
+        <v>22.84138619023833</v>
       </c>
       <c r="D10">
-        <v>182.6852953499914</v>
+        <v>124.1646308527536</v>
       </c>
       <c r="E10">
-        <v>167.3972790731266</v>
+        <v>113.7739155308053</v>
       </c>
       <c r="F10">
-        <v>53.2019970578845</v>
+        <v>36.15948570280931</v>
       </c>
       <c r="G10">
-        <v>34.34170013089857</v>
+        <v>23.34081958506784</v>
       </c>
       <c r="H10">
-        <v>3.599674880716888</v>
+        <v>2.446569669977345</v>
       </c>
       <c r="I10">
-        <v>924.0177239573355</v>
+        <v>628.0216444173133</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>324.9112225431281</v>
+        <v>220.8304829882208</v>
       </c>
       <c r="C11">
-        <v>27.55763851622629</v>
+        <v>18.72993667599543</v>
       </c>
       <c r="D11">
-        <v>129.8606316343312</v>
+        <v>88.26160506400555</v>
       </c>
       <c r="E11">
-        <v>133.9178232585013</v>
+        <v>91.01913242464424</v>
       </c>
       <c r="F11">
-        <v>27.51827434028508</v>
+        <v>18.70318226007378</v>
       </c>
       <c r="G11">
-        <v>29.43574296934164</v>
+        <v>20.00641678720101</v>
       </c>
       <c r="H11">
-        <v>3.599674880716888</v>
+        <v>2.446569669977345</v>
       </c>
       <c r="I11">
-        <v>676.8010081425305</v>
+        <v>459.9973258701181</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>271.6510745364326</v>
+        <v>184.6314741750319</v>
       </c>
       <c r="C12">
-        <v>30.24618861537032</v>
+        <v>20.5572475712145</v>
       </c>
       <c r="D12">
-        <v>114.453438050597</v>
+        <v>77.78988920895405</v>
       </c>
       <c r="E12">
-        <v>104.9022948858261</v>
+        <v>71.2983203993047</v>
       </c>
       <c r="F12">
-        <v>24.46068830247562</v>
+        <v>16.62505089784336</v>
       </c>
       <c r="G12">
-        <v>36.79467871167707</v>
+        <v>25.00802098400126</v>
       </c>
       <c r="H12">
-        <v>4.799566507622516</v>
+        <v>3.262092893303126</v>
       </c>
       <c r="I12">
-        <v>587.3079296100013</v>
+        <v>399.1720961296529</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>224.2276550784164</v>
+        <v>152.399480026302</v>
       </c>
       <c r="C13">
-        <v>20.16412574358021</v>
+        <v>13.704831714143</v>
       </c>
       <c r="D13">
-        <v>92.44316150240525</v>
+        <v>62.83029513030905</v>
       </c>
       <c r="E13">
-        <v>78.11873023412576</v>
+        <v>53.09449391437582</v>
       </c>
       <c r="F13">
-        <v>12.23034415123781</v>
+        <v>8.312525448921681</v>
       </c>
       <c r="G13">
-        <v>17.17085006544929</v>
+        <v>11.67040979253392</v>
       </c>
       <c r="H13">
-        <v>2.399783253811258</v>
+        <v>1.631046446651563</v>
       </c>
       <c r="I13">
-        <v>446.754650029026</v>
+        <v>303.643082473237</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>171.6970981403057</v>
+        <v>116.6963480461706</v>
       </c>
       <c r="C14">
-        <v>18.14771316922219</v>
+        <v>12.3343485427287</v>
       </c>
       <c r="D14">
-        <v>48.4226084060218</v>
+        <v>32.91110697301902</v>
       </c>
       <c r="E14">
-        <v>35.71141953560035</v>
+        <v>24.2717686465718</v>
       </c>
       <c r="F14">
-        <v>15.28793018904727</v>
+        <v>10.3906568111521</v>
       </c>
       <c r="G14">
-        <v>12.26489290389235</v>
+        <v>8.336006994667088</v>
       </c>
       <c r="H14">
-        <v>3.599674880716888</v>
+        <v>2.446569669977345</v>
       </c>
       <c r="I14">
-        <v>305.1313372248065</v>
+        <v>207.3868056842867</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>100.9267644875734</v>
+        <v>68.59629523960453</v>
       </c>
       <c r="C15">
-        <v>8.065650297432086</v>
+        <v>5.4819326856572</v>
       </c>
       <c r="D15">
-        <v>26.41233185783008</v>
+        <v>17.95151289437402</v>
       </c>
       <c r="E15">
-        <v>22.31963720975023</v>
+        <v>15.16985540410738</v>
       </c>
       <c r="F15">
-        <v>12.23034415123781</v>
+        <v>8.312525448921681</v>
       </c>
       <c r="G15">
-        <v>17.17085006544929</v>
+        <v>11.67040979253392</v>
       </c>
       <c r="H15">
-        <v>1.199891626905629</v>
+        <v>0.8155232233257815</v>
       </c>
       <c r="I15">
-        <v>188.3254696961785</v>
+        <v>127.9980546885245</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>81.22780563578202</v>
+        <v>55.20762074705519</v>
       </c>
       <c r="C16">
-        <v>15.45916307007816</v>
+        <v>10.50703764750963</v>
       </c>
       <c r="D16">
-        <v>30.81438716746842</v>
+        <v>20.94343171010302</v>
       </c>
       <c r="E16">
-        <v>6.695891162925068</v>
+        <v>4.550956621232215</v>
       </c>
       <c r="F16">
-        <v>6.726689283180797</v>
+        <v>4.571888996906925</v>
       </c>
       <c r="G16">
-        <v>19.62382864622776</v>
+        <v>13.33761119146734</v>
       </c>
       <c r="H16">
-        <v>1.199891626905629</v>
+        <v>0.8155232233257815</v>
       </c>
       <c r="I16">
-        <v>161.7476565925679</v>
+        <v>109.9340701376001</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>51.55776884666405</v>
+        <v>35.04196286938832</v>
       </c>
       <c r="C17">
-        <v>20.83626326836622</v>
+        <v>14.16165943794777</v>
       </c>
       <c r="D17">
-        <v>15.40719358373421</v>
+        <v>10.47171585505151</v>
       </c>
       <c r="E17">
-        <v>2.231963720975022</v>
+        <v>1.516985540410738</v>
       </c>
       <c r="F17">
-        <v>14.06489577392349</v>
+        <v>9.559404266259936</v>
       </c>
       <c r="G17">
-        <v>19.62382864622776</v>
+        <v>13.33761119146734</v>
       </c>
       <c r="I17">
-        <v>123.7219138398907</v>
+        <v>84.0893391605256</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>35.26356831493529</v>
+        <v>23.96738026444012</v>
       </c>
       <c r="C18">
-        <v>18.14771316922219</v>
+        <v>12.3343485427287</v>
       </c>
       <c r="D18">
-        <v>15.40719358373421</v>
+        <v>10.47171585505151</v>
       </c>
       <c r="E18">
-        <v>2.231963720975022</v>
+        <v>1.516985540410738</v>
       </c>
       <c r="F18">
-        <v>7.338206490742689</v>
+        <v>4.987515269353009</v>
       </c>
       <c r="G18">
-        <v>26.98276438856317</v>
+        <v>18.33921538826759</v>
       </c>
       <c r="I18">
-        <v>105.3714096681726</v>
+        <v>71.61716086025167</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,25 +925,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>36.47955342924342</v>
+        <v>24.79384165286909</v>
       </c>
       <c r="C19">
-        <v>15.45916307007816</v>
+        <v>10.50703764750963</v>
       </c>
       <c r="D19">
-        <v>22.01027654819174</v>
+        <v>14.95959407864501</v>
       </c>
       <c r="E19">
-        <v>11.15981860487511</v>
+        <v>7.584927702053691</v>
       </c>
       <c r="F19">
-        <v>12.8418613587997</v>
+        <v>8.728151721367766</v>
       </c>
       <c r="G19">
-        <v>22.07680722700623</v>
+        <v>15.00481259040075</v>
       </c>
       <c r="I19">
-        <v>120.0274802381944</v>
+        <v>81.57836539284594</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -951,25 +951,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>62.50163487543703</v>
+        <v>42.48011536524905</v>
       </c>
       <c r="C20">
-        <v>9.409925347004098</v>
+        <v>6.395588133266734</v>
       </c>
       <c r="D20">
-        <v>33.0154148222876</v>
+        <v>22.43939111796752</v>
       </c>
       <c r="E20">
-        <v>6.695891162925068</v>
+        <v>4.550956621232215</v>
       </c>
       <c r="F20">
-        <v>25.68372271759941</v>
+        <v>17.45630344273553</v>
       </c>
       <c r="G20">
-        <v>26.98276438856317</v>
+        <v>18.33921538826759</v>
       </c>
       <c r="I20">
-        <v>164.2893533138163</v>
+        <v>111.6615700687186</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>144.9454256255272</v>
+        <v>98.51419750073325</v>
       </c>
       <c r="C21">
-        <v>8.065650297432086</v>
+        <v>5.4819326856572</v>
       </c>
       <c r="D21">
-        <v>77.03596791867106</v>
+        <v>52.35857927525754</v>
       </c>
       <c r="E21">
-        <v>84.81462139705081</v>
+        <v>57.64545053560806</v>
       </c>
       <c r="F21">
-        <v>44.02923894445613</v>
+        <v>29.92509161611805</v>
       </c>
       <c r="G21">
-        <v>71.13637884257562</v>
+        <v>48.3488405690691</v>
       </c>
       <c r="H21">
-        <v>1.199891626905629</v>
+        <v>0.8155232233257815</v>
       </c>
       <c r="I21">
-        <v>431.2271746526185</v>
+        <v>293.0896154057689</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>258.0320412561818</v>
+        <v>175.3751066246276</v>
       </c>
       <c r="C22">
-        <v>26.88550099144028</v>
+        <v>18.27310895219067</v>
       </c>
       <c r="D22">
-        <v>138.664742253608</v>
+        <v>94.24544269546357</v>
       </c>
       <c r="E22">
-        <v>218.7324446555522</v>
+        <v>148.6645829602523</v>
       </c>
       <c r="F22">
-        <v>73.38206490742687</v>
+        <v>49.87515269353009</v>
       </c>
       <c r="G22">
-        <v>110.3840361350311</v>
+        <v>75.02406295200377</v>
       </c>
       <c r="H22">
-        <v>5.999458134528146</v>
+        <v>4.077616116628908</v>
       </c>
       <c r="I22">
-        <v>832.0802883337684</v>
+        <v>565.5350729946969</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>357.2564265837237</v>
+        <v>242.8143559204314</v>
       </c>
       <c r="C23">
-        <v>13.44275049572014</v>
+        <v>9.136554476095334</v>
       </c>
       <c r="D23">
-        <v>92.44316150240525</v>
+        <v>62.83029513030905</v>
       </c>
       <c r="E23">
-        <v>183.0210251199518</v>
+        <v>124.3928143136805</v>
       </c>
       <c r="F23">
-        <v>86.83544347378846</v>
+        <v>59.01893068734393</v>
       </c>
       <c r="G23">
-        <v>100.5721218119173</v>
+        <v>68.35525735627012</v>
       </c>
       <c r="H23">
-        <v>11.99891626905629</v>
+        <v>8.155232233257816</v>
       </c>
       <c r="I23">
-        <v>845.569845256563</v>
+        <v>574.7034401173881</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>418.0556822991294</v>
+        <v>284.13742534188</v>
       </c>
       <c r="C24">
-        <v>16.13130059486417</v>
+        <v>10.9638653713144</v>
       </c>
       <c r="D24">
-        <v>114.453438050597</v>
+        <v>77.78988920895405</v>
       </c>
       <c r="E24">
-        <v>80.35069395510078</v>
+        <v>54.61147945478657</v>
       </c>
       <c r="F24">
-        <v>92.33909834184549</v>
+        <v>62.7595671393587</v>
       </c>
       <c r="G24">
-        <v>139.8197791043728</v>
+        <v>95.03047973920479</v>
       </c>
       <c r="H24">
-        <v>9.599133015245032</v>
+        <v>6.524185786606252</v>
       </c>
       <c r="I24">
-        <v>870.7491253611546</v>
+        <v>591.8168920421048</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>337.5574677319324</v>
+        <v>229.4256814278822</v>
       </c>
       <c r="C25">
-        <v>32.93473871451435</v>
+        <v>22.38455846643357</v>
       </c>
       <c r="D25">
-        <v>149.6698805277038</v>
+        <v>101.7252397347861</v>
       </c>
       <c r="E25">
-        <v>60.26302046632561</v>
+        <v>40.95860959108992</v>
       </c>
       <c r="F25">
-        <v>118.0228210594449</v>
+        <v>80.21587058209423</v>
       </c>
       <c r="G25">
-        <v>164.3495649121575</v>
+        <v>111.7024937285389</v>
       </c>
       <c r="H25">
-        <v>4.799566507622516</v>
+        <v>3.262092893303126</v>
       </c>
       <c r="I25">
-        <v>867.5970599197012</v>
+        <v>589.674546424128</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>345.582969486366</v>
+        <v>234.8803265915133</v>
       </c>
       <c r="C26">
-        <v>36.29542633844438</v>
+        <v>24.6686970854574</v>
       </c>
       <c r="D26">
-        <v>143.0667975632463</v>
+        <v>97.23736151119255</v>
       </c>
       <c r="E26">
-        <v>35.71141953560035</v>
+        <v>24.2717686465718</v>
       </c>
       <c r="F26">
-        <v>154.1023363055965</v>
+        <v>104.7378206564132</v>
       </c>
       <c r="G26">
-        <v>169.2555220737144</v>
+        <v>115.0368965264058</v>
       </c>
       <c r="H26">
-        <v>11.99891626905629</v>
+        <v>8.155232233257816</v>
       </c>
       <c r="I26">
-        <v>896.0133875720243</v>
+        <v>608.9881032508118</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>339.5030439148255</v>
+        <v>230.7480196493684</v>
       </c>
       <c r="C27">
-        <v>43.68893911109045</v>
+        <v>29.69380204730983</v>
       </c>
       <c r="D27">
-        <v>127.6596039795121</v>
+        <v>86.76564565614106</v>
       </c>
       <c r="E27">
-        <v>29.01552837267528</v>
+        <v>19.72081202533959</v>
       </c>
       <c r="F27">
-        <v>127.8070963804352</v>
+        <v>86.86589094123157</v>
       </c>
       <c r="G27">
-        <v>156.9906291698221</v>
+        <v>106.7008895317387</v>
       </c>
       <c r="H27">
-        <v>10.79902464215066</v>
+        <v>7.339709009932033</v>
       </c>
       <c r="I27">
-        <v>835.4638655705112</v>
+        <v>567.8347688610611</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>346.5557575778124</v>
+        <v>235.5414957022564</v>
       </c>
       <c r="C28">
-        <v>33.60687623930036</v>
+        <v>22.84138619023833</v>
       </c>
       <c r="D28">
-        <v>112.2524103957778</v>
+        <v>76.29392980108956</v>
       </c>
       <c r="E28">
-        <v>42.40731069852541</v>
+        <v>28.82272526780403</v>
       </c>
       <c r="F28">
-        <v>108.2385457384547</v>
+        <v>73.56585022295687</v>
       </c>
       <c r="G28">
-        <v>115.2899932965881</v>
+        <v>78.3584657498706</v>
       </c>
       <c r="H28">
-        <v>15.59859114977318</v>
+        <v>10.60180190323516</v>
       </c>
       <c r="I28">
-        <v>773.9494850962318</v>
+        <v>526.0256548374509</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>366.741110475327</v>
+        <v>249.2607547501774</v>
       </c>
       <c r="C29">
-        <v>30.24618861537032</v>
+        <v>20.5572475712145</v>
       </c>
       <c r="D29">
-        <v>162.8760464566189</v>
+        <v>110.7009961819731</v>
       </c>
       <c r="E29">
-        <v>55.79909302437554</v>
+        <v>37.92463851026846</v>
       </c>
       <c r="F29">
-        <v>123.5264759275019</v>
+        <v>83.95650703410898</v>
       </c>
       <c r="G29">
-        <v>112.8370147158096</v>
+        <v>76.6912643509372</v>
       </c>
       <c r="H29">
-        <v>15.59859114977318</v>
+        <v>10.60180190323516</v>
       </c>
       <c r="I29">
-        <v>867.6245203647765</v>
+        <v>589.6932103019147</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>321.9928582687884</v>
+        <v>218.8469756559913</v>
       </c>
       <c r="C30">
-        <v>28.9019135657983</v>
+        <v>19.64359212360497</v>
       </c>
       <c r="D30">
-        <v>165.077074111438</v>
+        <v>112.1969555898376</v>
       </c>
       <c r="E30">
-        <v>35.71141953560035</v>
+        <v>24.2717686465718</v>
       </c>
       <c r="F30">
-        <v>112.5191661913879</v>
+        <v>76.47523413007949</v>
       </c>
       <c r="G30">
-        <v>66.23042168101868</v>
+        <v>45.01443777120227</v>
       </c>
       <c r="H30">
-        <v>9.599133015245032</v>
+        <v>6.524185786606252</v>
       </c>
       <c r="I30">
-        <v>740.0319863692766</v>
+        <v>502.9731497038936</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>378.6577645955468</v>
+        <v>257.3600763567812</v>
       </c>
       <c r="C31">
-        <v>22.18053831793823</v>
+        <v>15.0753148855573</v>
       </c>
       <c r="D31">
-        <v>118.8554933602354</v>
+        <v>80.78180802468307</v>
       </c>
       <c r="E31">
-        <v>33.47945581462533</v>
+        <v>22.75478310616106</v>
       </c>
       <c r="F31">
-        <v>110.0730973611403</v>
+        <v>74.81272904029514</v>
       </c>
       <c r="G31">
-        <v>103.0251003926957</v>
+        <v>70.02245875520353</v>
       </c>
       <c r="H31">
-        <v>17.99837440358444</v>
+        <v>12.23284834988672</v>
       </c>
       <c r="I31">
-        <v>784.2698242457661</v>
+        <v>533.0400185185681</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>432.6475036708269</v>
+        <v>294.0549620030276</v>
       </c>
       <c r="C32">
-        <v>29.57405109058431</v>
+        <v>20.10041984740973</v>
       </c>
       <c r="D32">
-        <v>143.0667975632463</v>
+        <v>97.23736151119255</v>
       </c>
       <c r="E32">
-        <v>73.65480279217573</v>
+        <v>50.06052283355436</v>
       </c>
       <c r="F32">
-        <v>106.403994115769</v>
+        <v>72.31897140561863</v>
       </c>
       <c r="G32">
-        <v>83.40127174646796</v>
+        <v>56.68484756373618</v>
       </c>
       <c r="H32">
-        <v>10.79902464215066</v>
+        <v>7.339709009932033</v>
       </c>
       <c r="I32">
-        <v>879.547445621221</v>
+        <v>597.7967941744711</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>474.4773916030261</v>
+        <v>322.4852337649841</v>
       </c>
       <c r="C33">
-        <v>22.18053831793823</v>
+        <v>15.0753148855573</v>
       </c>
       <c r="D33">
-        <v>107.8503550861395</v>
+        <v>73.3020109853606</v>
       </c>
       <c r="E33">
-        <v>124.9899683746012</v>
+        <v>84.95119026300134</v>
       </c>
       <c r="F33">
-        <v>86.83544347378846</v>
+        <v>59.01893068734393</v>
       </c>
       <c r="G33">
-        <v>41.70063587323398</v>
+        <v>28.34242378186809</v>
       </c>
       <c r="H33">
-        <v>8.399241388339403</v>
+        <v>5.708662563280472</v>
       </c>
       <c r="I33">
-        <v>866.433574117067</v>
+        <v>588.8837669313958</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,28 +1354,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>495.1491385462641</v>
+        <v>336.5350773682765</v>
       </c>
       <c r="C34">
-        <v>15.45916307007816</v>
+        <v>10.50703764750963</v>
       </c>
       <c r="D34">
-        <v>123.2575486698737</v>
+        <v>83.77372684041207</v>
       </c>
       <c r="E34">
-        <v>160.7013879102016</v>
+        <v>109.2229589095731</v>
       </c>
       <c r="F34">
-        <v>58.70565192594151</v>
+        <v>39.90012215482407</v>
       </c>
       <c r="G34">
-        <v>22.07680722700623</v>
+        <v>15.00481259040075</v>
       </c>
       <c r="H34">
-        <v>5.999458134528146</v>
+        <v>4.077616116628908</v>
       </c>
       <c r="I34">
-        <v>881.3491554838935</v>
+        <v>599.0213516276251</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1383,28 +1383,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>347.2853486463972</v>
+        <v>236.0373725353138</v>
       </c>
       <c r="C35">
-        <v>14.11488802050615</v>
+        <v>9.593382199900098</v>
       </c>
       <c r="D35">
-        <v>101.247272121682</v>
+        <v>68.81413276176704</v>
       </c>
       <c r="E35">
-        <v>120.5260409326512</v>
+        <v>81.91721918217985</v>
       </c>
       <c r="F35">
-        <v>34.24496362346588</v>
+        <v>23.27507125698071</v>
       </c>
       <c r="G35">
-        <v>36.79467871167707</v>
+        <v>25.00802098400126</v>
       </c>
       <c r="H35">
-        <v>5.999458134528146</v>
+        <v>4.077616116628908</v>
       </c>
       <c r="I35">
-        <v>660.2126501909077</v>
+        <v>448.7228150367717</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1412,28 +1412,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>307.4010368970914</v>
+        <v>208.9294389948437</v>
       </c>
       <c r="C36">
-        <v>9.409925347004098</v>
+        <v>6.395588133266734</v>
       </c>
       <c r="D36">
-        <v>68.23185729939436</v>
+        <v>46.37474164379952</v>
       </c>
       <c r="E36">
-        <v>129.4538958165513</v>
+        <v>87.9851613438228</v>
       </c>
       <c r="F36">
-        <v>26.90675713272319</v>
+        <v>18.2875559876277</v>
       </c>
       <c r="G36">
-        <v>34.34170013089857</v>
+        <v>23.34081958506784</v>
       </c>
       <c r="H36">
-        <v>8.399241388339403</v>
+        <v>5.708662563280472</v>
       </c>
       <c r="I36">
-        <v>584.1444140120024</v>
+        <v>397.0219682517088</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1441,28 +1441,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>245.8721901131007</v>
+        <v>167.1104927403377</v>
       </c>
       <c r="C37">
-        <v>9.409925347004098</v>
+        <v>6.395588133266734</v>
       </c>
       <c r="D37">
-        <v>74.83494026385189</v>
+        <v>50.86261986739304</v>
       </c>
       <c r="E37">
-        <v>71.4228390712007</v>
+        <v>48.54353729314361</v>
       </c>
       <c r="F37">
-        <v>23.84917109491374</v>
+        <v>16.20942462539728</v>
       </c>
       <c r="G37">
-        <v>22.07680722700623</v>
+        <v>15.00481259040075</v>
       </c>
       <c r="H37">
-        <v>4.799566507622516</v>
+        <v>3.262092893303126</v>
       </c>
       <c r="I37">
-        <v>452.2654396246999</v>
+        <v>307.3885681432423</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1470,28 +1470,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>189.2072837863425</v>
+        <v>128.5973920395477</v>
       </c>
       <c r="C38">
-        <v>16.13130059486417</v>
+        <v>10.9638653713144</v>
       </c>
       <c r="D38">
-        <v>44.02055309638349</v>
+        <v>29.91918815729003</v>
       </c>
       <c r="E38">
-        <v>35.71141953560035</v>
+        <v>24.2717686465718</v>
       </c>
       <c r="F38">
-        <v>17.73399901929483</v>
+        <v>12.05316190093644</v>
       </c>
       <c r="G38">
-        <v>22.07680722700623</v>
+        <v>15.00481259040075</v>
       </c>
       <c r="H38">
-        <v>2.399783253811258</v>
+        <v>1.631046446651563</v>
       </c>
       <c r="I38">
-        <v>327.2811465133029</v>
+        <v>222.4412351527127</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1499,28 +1499,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>118.1937531107487</v>
+        <v>80.33204695529587</v>
       </c>
       <c r="C39">
-        <v>12.77061297093413</v>
+        <v>8.679726752290566</v>
       </c>
       <c r="D39">
-        <v>30.81438716746842</v>
+        <v>20.94343171010302</v>
       </c>
       <c r="E39">
-        <v>15.62374604682515</v>
+        <v>10.61889878287517</v>
       </c>
       <c r="F39">
-        <v>9.172758113428358</v>
+        <v>6.234394086691261</v>
       </c>
       <c r="G39">
-        <v>14.71787148467082</v>
+        <v>10.00320839360051</v>
       </c>
       <c r="H39">
-        <v>1.199891626905629</v>
+        <v>0.8155232233257815</v>
       </c>
       <c r="I39">
-        <v>202.4930205209812</v>
+        <v>137.6272299041822</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1528,28 +1528,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>89.73970143593884</v>
+        <v>60.99285046605797</v>
       </c>
       <c r="C40">
-        <v>27.55763851622629</v>
+        <v>18.72993667599543</v>
       </c>
       <c r="D40">
-        <v>24.2113042030109</v>
+        <v>16.45555348650951</v>
       </c>
       <c r="E40">
-        <v>8.927854883900087</v>
+        <v>6.067942161642951</v>
       </c>
       <c r="F40">
-        <v>8.56124090586647</v>
+        <v>5.818767814245177</v>
       </c>
       <c r="G40">
-        <v>26.98276438856317</v>
+        <v>18.33921538826759</v>
       </c>
       <c r="H40">
-        <v>2.399783253811258</v>
+        <v>1.631046446651563</v>
       </c>
       <c r="I40">
-        <v>188.380287587317</v>
+        <v>128.0353124393702</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1557,28 +1557,28 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>64.20401403546843</v>
+        <v>43.6371613090496</v>
       </c>
       <c r="C41">
-        <v>20.83626326836622</v>
+        <v>14.16165943794777</v>
       </c>
       <c r="D41">
-        <v>15.40719358373421</v>
+        <v>10.47171585505151</v>
       </c>
       <c r="E41">
-        <v>2.231963720975022</v>
+        <v>1.516985540410738</v>
       </c>
       <c r="F41">
-        <v>15.28793018904727</v>
+        <v>10.3906568111521</v>
       </c>
       <c r="G41">
-        <v>26.98276438856317</v>
+        <v>18.33921538826759</v>
       </c>
       <c r="H41">
-        <v>1.199891626905629</v>
+        <v>0.8155232233257815</v>
       </c>
       <c r="I41">
-        <v>146.15002081306</v>
+        <v>99.33291756520509</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1586,25 +1586,25 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>47.42341945801645</v>
+        <v>32.23199414872984</v>
       </c>
       <c r="C42">
-        <v>12.09847544614813</v>
+        <v>8.2228990284858</v>
       </c>
       <c r="D42">
-        <v>24.2113042030109</v>
+        <v>16.45555348650951</v>
       </c>
       <c r="E42">
-        <v>4.463927441950044</v>
+        <v>3.033971080821475</v>
       </c>
       <c r="F42">
-        <v>7.949723698304579</v>
+        <v>5.403141541799093</v>
       </c>
       <c r="G42">
-        <v>24.52978580778471</v>
+        <v>16.67201398933418</v>
       </c>
       <c r="I42">
-        <v>120.6766360552148</v>
+        <v>82.01957327567989</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1612,28 +1612,28 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>37.2091444978283</v>
+        <v>25.28971848592649</v>
       </c>
       <c r="C43">
-        <v>10.75420039657611</v>
+        <v>7.309243580876266</v>
       </c>
       <c r="D43">
-        <v>24.2113042030109</v>
+        <v>16.45555348650951</v>
       </c>
       <c r="E43">
-        <v>4.463927441950044</v>
+        <v>3.033971080821475</v>
       </c>
       <c r="F43">
-        <v>9.78427532099025</v>
+        <v>6.650020359137345</v>
       </c>
       <c r="G43">
-        <v>34.34170013089857</v>
+        <v>23.34081958506784</v>
       </c>
       <c r="H43">
-        <v>1.199891626905629</v>
+        <v>0.8155232233257815</v>
       </c>
       <c r="I43">
-        <v>121.9644436181598</v>
+        <v>82.89484980166471</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>61.28564976112892</v>
+        <v>41.6536539768201</v>
       </c>
       <c r="C44">
-        <v>8.737787822218092</v>
+        <v>5.938760409461968</v>
       </c>
       <c r="D44">
-        <v>26.41233185783008</v>
+        <v>17.95151289437402</v>
       </c>
       <c r="E44">
-        <v>6.695891162925068</v>
+        <v>4.550956621232215</v>
       </c>
       <c r="F44">
-        <v>26.90675713272319</v>
+        <v>18.2875559876277</v>
       </c>
       <c r="G44">
-        <v>34.34170013089857</v>
+        <v>23.34081958506784</v>
       </c>
       <c r="I44">
-        <v>164.3801178677239</v>
+        <v>111.7232594745839</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>145.6750166941121</v>
+        <v>99.01007433379061</v>
       </c>
       <c r="C45">
-        <v>7.393512772646078</v>
+        <v>5.025104961852432</v>
       </c>
       <c r="D45">
-        <v>41.81952544156431</v>
+        <v>28.42322874942553</v>
       </c>
       <c r="E45">
-        <v>71.4228390712007</v>
+        <v>48.54353729314361</v>
       </c>
       <c r="F45">
-        <v>58.70565192594151</v>
+        <v>39.90012215482407</v>
       </c>
       <c r="G45">
-        <v>73.58935742335413</v>
+        <v>50.01604196800251</v>
       </c>
       <c r="H45">
-        <v>2.399783253811258</v>
+        <v>1.631046446651563</v>
       </c>
       <c r="I45">
-        <v>401.0056865826301</v>
+        <v>272.5491559076904</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>266.300740033477</v>
+        <v>180.9950440659444</v>
       </c>
       <c r="C46">
-        <v>7.393512772646078</v>
+        <v>5.025104961852432</v>
       </c>
       <c r="D46">
-        <v>90.2421338475861</v>
+        <v>61.33433572244456</v>
       </c>
       <c r="E46">
-        <v>218.7324446555522</v>
+        <v>148.6645829602523</v>
       </c>
       <c r="F46">
-        <v>74.60509932255066</v>
+        <v>50.70640523842226</v>
       </c>
       <c r="G46">
-        <v>144.7257362659297</v>
+        <v>98.36488253707164</v>
       </c>
       <c r="H46">
-        <v>4.799566507622516</v>
+        <v>3.262092893303126</v>
       </c>
       <c r="I46">
-        <v>806.7992334053645</v>
+        <v>548.3524483792908</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>363.5795491781259</v>
+        <v>247.1119551402621</v>
       </c>
       <c r="C47">
-        <v>11.42633792136212</v>
+        <v>7.766071304681033</v>
       </c>
       <c r="D47">
-        <v>114.453438050597</v>
+        <v>77.78988920895405</v>
       </c>
       <c r="E47">
-        <v>174.0931702360517</v>
+        <v>118.3248721520376</v>
       </c>
       <c r="F47">
-        <v>77.66268536036013</v>
+        <v>52.78453660065266</v>
       </c>
       <c r="G47">
-        <v>117.7429718773666</v>
+        <v>80.02566714880405</v>
       </c>
       <c r="H47">
-        <v>8.399241388339403</v>
+        <v>5.708662563280472</v>
       </c>
       <c r="I47">
-        <v>867.3573940122029</v>
+        <v>589.5116541186718</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>401.2750877216778</v>
+        <v>272.7322581815602</v>
       </c>
       <c r="C48">
-        <v>16.80343811965018</v>
+        <v>11.42069309511916</v>
       </c>
       <c r="D48">
-        <v>132.0616592891504</v>
+        <v>89.75756447187008</v>
       </c>
       <c r="E48">
-        <v>89.2785488390009</v>
+        <v>60.67942161642953</v>
       </c>
       <c r="F48">
-        <v>96.00820158721685</v>
+        <v>65.25332477403519</v>
       </c>
       <c r="G48">
-        <v>122.6489290389235</v>
+        <v>83.36006994667088</v>
       </c>
       <c r="H48">
-        <v>10.79902464215066</v>
+        <v>7.339709009932033</v>
       </c>
       <c r="I48">
-        <v>868.8748892377703</v>
+        <v>590.543041095617</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>337.5574677319324</v>
+        <v>229.4256814278822</v>
       </c>
       <c r="C49">
-        <v>32.93473871451435</v>
+        <v>22.38455846643357</v>
       </c>
       <c r="D49">
-        <v>149.6698805277038</v>
+        <v>101.7252397347861</v>
       </c>
       <c r="E49">
-        <v>60.26302046632561</v>
+        <v>40.95860959108992</v>
       </c>
       <c r="F49">
-        <v>118.0228210594449</v>
+        <v>80.21587058209423</v>
       </c>
       <c r="G49">
-        <v>164.3495649121575</v>
+        <v>111.7024937285389</v>
       </c>
       <c r="H49">
-        <v>4.799566507622516</v>
+        <v>3.262092893303126</v>
       </c>
       <c r="I49">
-        <v>867.5970599197012</v>
+        <v>589.674546424128</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_재비산_TSP.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>228.4339277617674</v>
+        <v>336.0982855947626</v>
       </c>
       <c r="C2">
-        <v>29.69380204730983</v>
+        <v>43.68893911109045</v>
       </c>
       <c r="D2">
-        <v>107.7090773662441</v>
+        <v>158.4739911469805</v>
       </c>
       <c r="E2">
-        <v>24.2717686465718</v>
+        <v>35.71141953560035</v>
       </c>
       <c r="F2">
-        <v>98.08780029727583</v>
+        <v>144.3180609846062</v>
       </c>
       <c r="G2">
-        <v>96.69768113813819</v>
+        <v>142.2727576851512</v>
       </c>
       <c r="H2">
-        <v>6.524185786606252</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I2">
-        <v>591.4182430439134</v>
+        <v>870.1625870734364</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>237.525003034486</v>
+        <v>349.4741218521519</v>
       </c>
       <c r="C3">
-        <v>26.03918025687171</v>
+        <v>38.31183891280241</v>
       </c>
       <c r="D3">
-        <v>98.73332091905709</v>
+        <v>145.2678252180654</v>
       </c>
       <c r="E3">
-        <v>24.2717686465718</v>
+        <v>35.71141953560035</v>
       </c>
       <c r="F3">
-        <v>76.89086040252555</v>
+        <v>113.1306833989498</v>
       </c>
       <c r="G3">
-        <v>83.36006994667088</v>
+        <v>122.6489290389235</v>
       </c>
       <c r="H3">
-        <v>8.970755456583596</v>
+        <v>13.19880789596192</v>
       </c>
       <c r="I3">
-        <v>555.7909586627666</v>
+        <v>817.7436258524554</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>250.417800693978</v>
+        <v>368.4434896353585</v>
       </c>
       <c r="C4">
-        <v>27.86649115209076</v>
+        <v>41.00038901194642</v>
       </c>
       <c r="D4">
-        <v>97.23736151119255</v>
+        <v>143.0667975632463</v>
       </c>
       <c r="E4">
-        <v>22.75478310616106</v>
+        <v>33.47945581462533</v>
       </c>
       <c r="F4">
-        <v>86.86589094123157</v>
+        <v>127.8070963804352</v>
       </c>
       <c r="G4">
-        <v>75.02406295200377</v>
+        <v>110.3840361350311</v>
       </c>
       <c r="H4">
-        <v>8.155232233257816</v>
+        <v>11.99891626905629</v>
       </c>
       <c r="I4">
-        <v>568.3216225899156</v>
+        <v>836.1801808096991</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>249.0954624724916</v>
+        <v>366.4979134524656</v>
       </c>
       <c r="C5">
-        <v>20.5572475712145</v>
+        <v>30.24618861537032</v>
       </c>
       <c r="D5">
-        <v>89.75756447187008</v>
+        <v>132.0616592891504</v>
       </c>
       <c r="E5">
-        <v>22.75478310616106</v>
+        <v>33.47945581462533</v>
       </c>
       <c r="F5">
-        <v>87.69714348612375</v>
+        <v>129.030130795559</v>
       </c>
       <c r="G5">
-        <v>56.68484756373618</v>
+        <v>83.40127174646796</v>
       </c>
       <c r="H5">
-        <v>6.524185786606252</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I5">
-        <v>533.0712344582035</v>
+        <v>784.3157527288836</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>257.525368634467</v>
+        <v>378.9009616184082</v>
       </c>
       <c r="C6">
-        <v>24.6686970854574</v>
+        <v>36.29542633844438</v>
       </c>
       <c r="D6">
-        <v>106.2131179583796</v>
+        <v>156.2729634921613</v>
       </c>
       <c r="E6">
-        <v>28.82272526780403</v>
+        <v>42.40731069852541</v>
       </c>
       <c r="F6">
-        <v>75.22835531274123</v>
+        <v>110.6846145687022</v>
       </c>
       <c r="G6">
-        <v>60.01925036160301</v>
+        <v>88.30722890802494</v>
       </c>
       <c r="H6">
-        <v>4.89313933995469</v>
+        <v>7.199349761433776</v>
       </c>
       <c r="I6">
-        <v>557.3706539604069</v>
+        <v>820.0678553857003</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>262.8147215204125</v>
+        <v>386.6832663499802</v>
       </c>
       <c r="C7">
-        <v>21.47090301882403</v>
+        <v>31.59046366494233</v>
       </c>
       <c r="D7">
-        <v>110.7009961819731</v>
+        <v>162.8760464566189</v>
       </c>
       <c r="E7">
-        <v>27.30573972739328</v>
+        <v>40.17534697755039</v>
       </c>
       <c r="F7">
-        <v>66.08457731892736</v>
+        <v>97.23123600234062</v>
       </c>
       <c r="G7">
-        <v>48.3488405690691</v>
+        <v>71.13637884257562</v>
       </c>
       <c r="H7">
-        <v>10.60180190323516</v>
+        <v>15.59859114977318</v>
       </c>
       <c r="I7">
-        <v>547.3275802398346</v>
+        <v>805.2913294437811</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>287.939147728653</v>
+        <v>423.6492138249468</v>
       </c>
       <c r="C8">
-        <v>23.75504163784787</v>
+        <v>34.95115128887237</v>
       </c>
       <c r="D8">
-        <v>104.7171585505151</v>
+        <v>154.0719358373421</v>
       </c>
       <c r="E8">
-        <v>51.57750837396511</v>
+        <v>75.88676651315073</v>
       </c>
       <c r="F8">
-        <v>71.90334513317255</v>
+        <v>105.7924769082071</v>
       </c>
       <c r="G8">
-        <v>31.67682657973493</v>
+        <v>46.60659303479093</v>
       </c>
       <c r="H8">
-        <v>8.970755456583596</v>
+        <v>13.19880789596192</v>
       </c>
       <c r="I8">
-        <v>580.539783460472</v>
+        <v>854.1569453032719</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>317.6917577120961</v>
+        <v>467.4246779400393</v>
       </c>
       <c r="C9">
-        <v>20.10041984740973</v>
+        <v>29.57405109058431</v>
       </c>
       <c r="D9">
-        <v>100.2292803269216</v>
+        <v>147.4688528728846</v>
       </c>
       <c r="E9">
-        <v>94.05310350546573</v>
+        <v>138.3817507004514</v>
       </c>
       <c r="F9">
-        <v>67.33145613626561</v>
+        <v>99.06578762502629</v>
       </c>
       <c r="G9">
-        <v>31.67682657973493</v>
+        <v>46.60659303479093</v>
       </c>
       <c r="H9">
-        <v>5.708662563280472</v>
+        <v>8.399241388339403</v>
       </c>
       <c r="I9">
-        <v>636.7915066711741</v>
+        <v>936.9209546521161</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>305.2948368856616</v>
+        <v>449.1849012254173</v>
       </c>
       <c r="C10">
-        <v>22.84138619023833</v>
+        <v>33.60687623930036</v>
       </c>
       <c r="D10">
-        <v>124.1646308527536</v>
+        <v>182.6852953499914</v>
       </c>
       <c r="E10">
-        <v>113.7739155308053</v>
+        <v>167.3972790731266</v>
       </c>
       <c r="F10">
-        <v>36.15948570280931</v>
+        <v>53.2019970578845</v>
       </c>
       <c r="G10">
-        <v>23.34081958506784</v>
+        <v>34.34170013089857</v>
       </c>
       <c r="H10">
-        <v>2.446569669977345</v>
+        <v>3.599674880716888</v>
       </c>
       <c r="I10">
-        <v>628.0216444173133</v>
+        <v>924.0177239573355</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>220.8304829882208</v>
+        <v>324.9112225431281</v>
       </c>
       <c r="C11">
-        <v>18.72993667599543</v>
+        <v>27.55763851622629</v>
       </c>
       <c r="D11">
-        <v>88.26160506400555</v>
+        <v>129.8606316343312</v>
       </c>
       <c r="E11">
-        <v>91.01913242464424</v>
+        <v>133.9178232585013</v>
       </c>
       <c r="F11">
-        <v>18.70318226007378</v>
+        <v>27.51827434028508</v>
       </c>
       <c r="G11">
-        <v>20.00641678720101</v>
+        <v>29.43574296934164</v>
       </c>
       <c r="H11">
-        <v>2.446569669977345</v>
+        <v>3.599674880716888</v>
       </c>
       <c r="I11">
-        <v>459.9973258701181</v>
+        <v>676.8010081425305</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>184.6314741750319</v>
+        <v>271.6510745364326</v>
       </c>
       <c r="C12">
-        <v>20.5572475712145</v>
+        <v>30.24618861537032</v>
       </c>
       <c r="D12">
-        <v>77.78988920895405</v>
+        <v>114.453438050597</v>
       </c>
       <c r="E12">
-        <v>71.2983203993047</v>
+        <v>104.9022948858261</v>
       </c>
       <c r="F12">
-        <v>16.62505089784336</v>
+        <v>24.46068830247562</v>
       </c>
       <c r="G12">
-        <v>25.00802098400126</v>
+        <v>36.79467871167707</v>
       </c>
       <c r="H12">
-        <v>3.262092893303126</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I12">
-        <v>399.1720961296529</v>
+        <v>587.3079296100013</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>152.399480026302</v>
+        <v>224.2276550784164</v>
       </c>
       <c r="C13">
-        <v>13.704831714143</v>
+        <v>20.16412574358021</v>
       </c>
       <c r="D13">
-        <v>62.83029513030905</v>
+        <v>92.44316150240525</v>
       </c>
       <c r="E13">
-        <v>53.09449391437582</v>
+        <v>78.11873023412576</v>
       </c>
       <c r="F13">
-        <v>8.312525448921681</v>
+        <v>12.23034415123781</v>
       </c>
       <c r="G13">
-        <v>11.67040979253392</v>
+        <v>17.17085006544929</v>
       </c>
       <c r="H13">
-        <v>1.631046446651563</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I13">
-        <v>303.643082473237</v>
+        <v>446.754650029026</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>116.6963480461706</v>
+        <v>171.6970981403057</v>
       </c>
       <c r="C14">
-        <v>12.3343485427287</v>
+        <v>18.14771316922219</v>
       </c>
       <c r="D14">
-        <v>32.91110697301902</v>
+        <v>48.4226084060218</v>
       </c>
       <c r="E14">
-        <v>24.2717686465718</v>
+        <v>35.71141953560035</v>
       </c>
       <c r="F14">
-        <v>10.3906568111521</v>
+        <v>15.28793018904727</v>
       </c>
       <c r="G14">
-        <v>8.336006994667088</v>
+        <v>12.26489290389235</v>
       </c>
       <c r="H14">
-        <v>2.446569669977345</v>
+        <v>3.599674880716888</v>
       </c>
       <c r="I14">
-        <v>207.3868056842867</v>
+        <v>305.1313372248065</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>68.59629523960453</v>
+        <v>100.9267644875734</v>
       </c>
       <c r="C15">
-        <v>5.4819326856572</v>
+        <v>8.065650297432086</v>
       </c>
       <c r="D15">
-        <v>17.95151289437402</v>
+        <v>26.41233185783008</v>
       </c>
       <c r="E15">
-        <v>15.16985540410738</v>
+        <v>22.31963720975023</v>
       </c>
       <c r="F15">
-        <v>8.312525448921681</v>
+        <v>12.23034415123781</v>
       </c>
       <c r="G15">
-        <v>11.67040979253392</v>
+        <v>17.17085006544929</v>
       </c>
       <c r="H15">
-        <v>0.8155232233257815</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I15">
-        <v>127.9980546885245</v>
+        <v>188.3254696961785</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>55.20762074705519</v>
+        <v>81.22780563578202</v>
       </c>
       <c r="C16">
-        <v>10.50703764750963</v>
+        <v>15.45916307007816</v>
       </c>
       <c r="D16">
-        <v>20.94343171010302</v>
+        <v>30.81438716746842</v>
       </c>
       <c r="E16">
-        <v>4.550956621232215</v>
+        <v>6.695891162925068</v>
       </c>
       <c r="F16">
-        <v>4.571888996906925</v>
+        <v>6.726689283180797</v>
       </c>
       <c r="G16">
-        <v>13.33761119146734</v>
+        <v>19.62382864622776</v>
       </c>
       <c r="H16">
-        <v>0.8155232233257815</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I16">
-        <v>109.9340701376001</v>
+        <v>161.7476565925679</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>35.04196286938832</v>
+        <v>51.55776884666405</v>
       </c>
       <c r="C17">
-        <v>14.16165943794777</v>
+        <v>20.83626326836622</v>
       </c>
       <c r="D17">
-        <v>10.47171585505151</v>
+        <v>15.40719358373421</v>
       </c>
       <c r="E17">
-        <v>1.516985540410738</v>
+        <v>2.231963720975022</v>
       </c>
       <c r="F17">
-        <v>9.559404266259936</v>
+        <v>14.06489577392349</v>
       </c>
       <c r="G17">
-        <v>13.33761119146734</v>
+        <v>19.62382864622776</v>
       </c>
       <c r="I17">
-        <v>84.0893391605256</v>
+        <v>123.7219138398907</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>23.96738026444012</v>
+        <v>35.26356831493529</v>
       </c>
       <c r="C18">
-        <v>12.3343485427287</v>
+        <v>18.14771316922219</v>
       </c>
       <c r="D18">
-        <v>10.47171585505151</v>
+        <v>15.40719358373421</v>
       </c>
       <c r="E18">
-        <v>1.516985540410738</v>
+        <v>2.231963720975022</v>
       </c>
       <c r="F18">
-        <v>4.987515269353009</v>
+        <v>7.338206490742689</v>
       </c>
       <c r="G18">
-        <v>18.33921538826759</v>
+        <v>26.98276438856317</v>
       </c>
       <c r="I18">
-        <v>71.61716086025167</v>
+        <v>105.3714096681726</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,25 +925,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>24.79384165286909</v>
+        <v>36.47955342924342</v>
       </c>
       <c r="C19">
-        <v>10.50703764750963</v>
+        <v>15.45916307007816</v>
       </c>
       <c r="D19">
-        <v>14.95959407864501</v>
+        <v>22.01027654819174</v>
       </c>
       <c r="E19">
-        <v>7.584927702053691</v>
+        <v>11.15981860487511</v>
       </c>
       <c r="F19">
-        <v>8.728151721367766</v>
+        <v>12.8418613587997</v>
       </c>
       <c r="G19">
-        <v>15.00481259040075</v>
+        <v>22.07680722700623</v>
       </c>
       <c r="I19">
-        <v>81.57836539284594</v>
+        <v>120.0274802381944</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -951,25 +951,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>42.48011536524905</v>
+        <v>62.50163487543703</v>
       </c>
       <c r="C20">
-        <v>6.395588133266734</v>
+        <v>9.409925347004098</v>
       </c>
       <c r="D20">
-        <v>22.43939111796752</v>
+        <v>33.0154148222876</v>
       </c>
       <c r="E20">
-        <v>4.550956621232215</v>
+        <v>6.695891162925068</v>
       </c>
       <c r="F20">
-        <v>17.45630344273553</v>
+        <v>25.68372271759941</v>
       </c>
       <c r="G20">
-        <v>18.33921538826759</v>
+        <v>26.98276438856317</v>
       </c>
       <c r="I20">
-        <v>111.6615700687186</v>
+        <v>164.2893533138163</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>98.51419750073325</v>
+        <v>144.9454256255272</v>
       </c>
       <c r="C21">
-        <v>5.4819326856572</v>
+        <v>8.065650297432086</v>
       </c>
       <c r="D21">
-        <v>52.35857927525754</v>
+        <v>77.03596791867106</v>
       </c>
       <c r="E21">
-        <v>57.64545053560806</v>
+        <v>84.81462139705081</v>
       </c>
       <c r="F21">
-        <v>29.92509161611805</v>
+        <v>44.02923894445613</v>
       </c>
       <c r="G21">
-        <v>48.3488405690691</v>
+        <v>71.13637884257562</v>
       </c>
       <c r="H21">
-        <v>0.8155232233257815</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I21">
-        <v>293.0896154057689</v>
+        <v>431.2271746526185</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>175.3751066246276</v>
+        <v>258.0320412561818</v>
       </c>
       <c r="C22">
-        <v>18.27310895219067</v>
+        <v>26.88550099144028</v>
       </c>
       <c r="D22">
-        <v>94.24544269546357</v>
+        <v>138.664742253608</v>
       </c>
       <c r="E22">
-        <v>148.6645829602523</v>
+        <v>218.7324446555522</v>
       </c>
       <c r="F22">
-        <v>49.87515269353009</v>
+        <v>73.38206490742687</v>
       </c>
       <c r="G22">
-        <v>75.02406295200377</v>
+        <v>110.3840361350311</v>
       </c>
       <c r="H22">
-        <v>4.077616116628908</v>
+        <v>5.999458134528146</v>
       </c>
       <c r="I22">
-        <v>565.5350729946969</v>
+        <v>832.0802883337684</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>242.8143559204314</v>
+        <v>357.2564265837237</v>
       </c>
       <c r="C23">
-        <v>9.136554476095334</v>
+        <v>13.44275049572014</v>
       </c>
       <c r="D23">
-        <v>62.83029513030905</v>
+        <v>92.44316150240525</v>
       </c>
       <c r="E23">
-        <v>124.3928143136805</v>
+        <v>183.0210251199518</v>
       </c>
       <c r="F23">
-        <v>59.01893068734393</v>
+        <v>86.83544347378846</v>
       </c>
       <c r="G23">
-        <v>68.35525735627012</v>
+        <v>100.5721218119173</v>
       </c>
       <c r="H23">
-        <v>8.155232233257816</v>
+        <v>11.99891626905629</v>
       </c>
       <c r="I23">
-        <v>574.7034401173881</v>
+        <v>845.569845256563</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>284.13742534188</v>
+        <v>418.0556822991294</v>
       </c>
       <c r="C24">
-        <v>10.9638653713144</v>
+        <v>16.13130059486417</v>
       </c>
       <c r="D24">
-        <v>77.78988920895405</v>
+        <v>114.453438050597</v>
       </c>
       <c r="E24">
-        <v>54.61147945478657</v>
+        <v>80.35069395510078</v>
       </c>
       <c r="F24">
-        <v>62.7595671393587</v>
+        <v>92.33909834184549</v>
       </c>
       <c r="G24">
-        <v>95.03047973920479</v>
+        <v>139.8197791043728</v>
       </c>
       <c r="H24">
-        <v>6.524185786606252</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I24">
-        <v>591.8168920421048</v>
+        <v>870.7491253611546</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>229.4256814278822</v>
+        <v>337.5574677319324</v>
       </c>
       <c r="C25">
-        <v>22.38455846643357</v>
+        <v>32.93473871451435</v>
       </c>
       <c r="D25">
-        <v>101.7252397347861</v>
+        <v>149.6698805277038</v>
       </c>
       <c r="E25">
-        <v>40.95860959108992</v>
+        <v>60.26302046632561</v>
       </c>
       <c r="F25">
-        <v>80.21587058209423</v>
+        <v>118.0228210594449</v>
       </c>
       <c r="G25">
-        <v>111.7024937285389</v>
+        <v>164.3495649121575</v>
       </c>
       <c r="H25">
-        <v>3.262092893303126</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I25">
-        <v>589.674546424128</v>
+        <v>867.5970599197012</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>234.8803265915133</v>
+        <v>345.582969486366</v>
       </c>
       <c r="C26">
-        <v>24.6686970854574</v>
+        <v>36.29542633844438</v>
       </c>
       <c r="D26">
-        <v>97.23736151119255</v>
+        <v>143.0667975632463</v>
       </c>
       <c r="E26">
-        <v>24.2717686465718</v>
+        <v>35.71141953560035</v>
       </c>
       <c r="F26">
-        <v>104.7378206564132</v>
+        <v>154.1023363055965</v>
       </c>
       <c r="G26">
-        <v>115.0368965264058</v>
+        <v>169.2555220737144</v>
       </c>
       <c r="H26">
-        <v>8.155232233257816</v>
+        <v>11.99891626905629</v>
       </c>
       <c r="I26">
-        <v>608.9881032508118</v>
+        <v>896.0133875720243</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>230.7480196493684</v>
+        <v>339.5030439148255</v>
       </c>
       <c r="C27">
-        <v>29.69380204730983</v>
+        <v>43.68893911109045</v>
       </c>
       <c r="D27">
-        <v>86.76564565614106</v>
+        <v>127.6596039795121</v>
       </c>
       <c r="E27">
-        <v>19.72081202533959</v>
+        <v>29.01552837267528</v>
       </c>
       <c r="F27">
-        <v>86.86589094123157</v>
+        <v>127.8070963804352</v>
       </c>
       <c r="G27">
-        <v>106.7008895317387</v>
+        <v>156.9906291698221</v>
       </c>
       <c r="H27">
-        <v>7.339709009932033</v>
+        <v>10.79902464215066</v>
       </c>
       <c r="I27">
-        <v>567.8347688610611</v>
+        <v>835.4638655705112</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>235.5414957022564</v>
+        <v>346.5557575778124</v>
       </c>
       <c r="C28">
-        <v>22.84138619023833</v>
+        <v>33.60687623930036</v>
       </c>
       <c r="D28">
-        <v>76.29392980108956</v>
+        <v>112.2524103957778</v>
       </c>
       <c r="E28">
-        <v>28.82272526780403</v>
+        <v>42.40731069852541</v>
       </c>
       <c r="F28">
-        <v>73.56585022295687</v>
+        <v>108.2385457384547</v>
       </c>
       <c r="G28">
-        <v>78.3584657498706</v>
+        <v>115.2899932965881</v>
       </c>
       <c r="H28">
-        <v>10.60180190323516</v>
+        <v>15.59859114977318</v>
       </c>
       <c r="I28">
-        <v>526.0256548374509</v>
+        <v>773.9494850962318</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>249.2607547501774</v>
+        <v>366.741110475327</v>
       </c>
       <c r="C29">
-        <v>20.5572475712145</v>
+        <v>30.24618861537032</v>
       </c>
       <c r="D29">
-        <v>110.7009961819731</v>
+        <v>162.8760464566189</v>
       </c>
       <c r="E29">
-        <v>37.92463851026846</v>
+        <v>55.79909302437554</v>
       </c>
       <c r="F29">
-        <v>83.95650703410898</v>
+        <v>123.5264759275019</v>
       </c>
       <c r="G29">
-        <v>76.6912643509372</v>
+        <v>112.8370147158096</v>
       </c>
       <c r="H29">
-        <v>10.60180190323516</v>
+        <v>15.59859114977318</v>
       </c>
       <c r="I29">
-        <v>589.6932103019147</v>
+        <v>867.6245203647765</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>218.8469756559913</v>
+        <v>321.9928582687884</v>
       </c>
       <c r="C30">
-        <v>19.64359212360497</v>
+        <v>28.9019135657983</v>
       </c>
       <c r="D30">
-        <v>112.1969555898376</v>
+        <v>165.077074111438</v>
       </c>
       <c r="E30">
-        <v>24.2717686465718</v>
+        <v>35.71141953560035</v>
       </c>
       <c r="F30">
-        <v>76.47523413007949</v>
+        <v>112.5191661913879</v>
       </c>
       <c r="G30">
-        <v>45.01443777120227</v>
+        <v>66.23042168101868</v>
       </c>
       <c r="H30">
-        <v>6.524185786606252</v>
+        <v>9.599133015245032</v>
       </c>
       <c r="I30">
-        <v>502.9731497038936</v>
+        <v>740.0319863692766</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>257.3600763567812</v>
+        <v>378.6577645955468</v>
       </c>
       <c r="C31">
-        <v>15.0753148855573</v>
+        <v>22.18053831793823</v>
       </c>
       <c r="D31">
-        <v>80.78180802468307</v>
+        <v>118.8554933602354</v>
       </c>
       <c r="E31">
-        <v>22.75478310616106</v>
+        <v>33.47945581462533</v>
       </c>
       <c r="F31">
-        <v>74.81272904029514</v>
+        <v>110.0730973611403</v>
       </c>
       <c r="G31">
-        <v>70.02245875520353</v>
+        <v>103.0251003926957</v>
       </c>
       <c r="H31">
-        <v>12.23284834988672</v>
+        <v>17.99837440358444</v>
       </c>
       <c r="I31">
-        <v>533.0400185185681</v>
+        <v>784.2698242457661</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>294.0549620030276</v>
+        <v>432.6475036708269</v>
       </c>
       <c r="C32">
-        <v>20.10041984740973</v>
+        <v>29.57405109058431</v>
       </c>
       <c r="D32">
-        <v>97.23736151119255</v>
+        <v>143.0667975632463</v>
       </c>
       <c r="E32">
-        <v>50.06052283355436</v>
+        <v>73.65480279217573</v>
       </c>
       <c r="F32">
-        <v>72.31897140561863</v>
+        <v>106.403994115769</v>
       </c>
       <c r="G32">
-        <v>56.68484756373618</v>
+        <v>83.40127174646796</v>
       </c>
       <c r="H32">
-        <v>7.339709009932033</v>
+        <v>10.79902464215066</v>
       </c>
       <c r="I32">
-        <v>597.7967941744711</v>
+        <v>879.547445621221</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>322.4852337649841</v>
+        <v>474.4773916030261</v>
       </c>
       <c r="C33">
-        <v>15.0753148855573</v>
+        <v>22.18053831793823</v>
       </c>
       <c r="D33">
-        <v>73.3020109853606</v>
+        <v>107.8503550861395</v>
       </c>
       <c r="E33">
-        <v>84.95119026300134</v>
+        <v>124.9899683746012</v>
       </c>
       <c r="F33">
-        <v>59.01893068734393</v>
+        <v>86.83544347378846</v>
       </c>
       <c r="G33">
-        <v>28.34242378186809</v>
+        <v>41.70063587323398</v>
       </c>
       <c r="H33">
-        <v>5.708662563280472</v>
+        <v>8.399241388339403</v>
       </c>
       <c r="I33">
-        <v>588.8837669313958</v>
+        <v>866.433574117067</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,28 +1354,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>336.5350773682765</v>
+        <v>495.1491385462641</v>
       </c>
       <c r="C34">
-        <v>10.50703764750963</v>
+        <v>15.45916307007816</v>
       </c>
       <c r="D34">
-        <v>83.77372684041207</v>
+        <v>123.2575486698737</v>
       </c>
       <c r="E34">
-        <v>109.2229589095731</v>
+        <v>160.7013879102016</v>
       </c>
       <c r="F34">
-        <v>39.90012215482407</v>
+        <v>58.70565192594151</v>
       </c>
       <c r="G34">
-        <v>15.00481259040075</v>
+        <v>22.07680722700623</v>
       </c>
       <c r="H34">
-        <v>4.077616116628908</v>
+        <v>5.999458134528146</v>
       </c>
       <c r="I34">
-        <v>599.0213516276251</v>
+        <v>881.3491554838935</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1383,28 +1383,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>236.0373725353138</v>
+        <v>347.2853486463972</v>
       </c>
       <c r="C35">
-        <v>9.593382199900098</v>
+        <v>14.11488802050615</v>
       </c>
       <c r="D35">
-        <v>68.81413276176704</v>
+        <v>101.247272121682</v>
       </c>
       <c r="E35">
-        <v>81.91721918217985</v>
+        <v>120.5260409326512</v>
       </c>
       <c r="F35">
-        <v>23.27507125698071</v>
+        <v>34.24496362346588</v>
       </c>
       <c r="G35">
-        <v>25.00802098400126</v>
+        <v>36.79467871167707</v>
       </c>
       <c r="H35">
-        <v>4.077616116628908</v>
+        <v>5.999458134528146</v>
       </c>
       <c r="I35">
-        <v>448.7228150367717</v>
+        <v>660.2126501909077</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1412,28 +1412,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>208.9294389948437</v>
+        <v>307.4010368970914</v>
       </c>
       <c r="C36">
-        <v>6.395588133266734</v>
+        <v>9.409925347004098</v>
       </c>
       <c r="D36">
-        <v>46.37474164379952</v>
+        <v>68.23185729939436</v>
       </c>
       <c r="E36">
-        <v>87.9851613438228</v>
+        <v>129.4538958165513</v>
       </c>
       <c r="F36">
-        <v>18.2875559876277</v>
+        <v>26.90675713272319</v>
       </c>
       <c r="G36">
-        <v>23.34081958506784</v>
+        <v>34.34170013089857</v>
       </c>
       <c r="H36">
-        <v>5.708662563280472</v>
+        <v>8.399241388339403</v>
       </c>
       <c r="I36">
-        <v>397.0219682517088</v>
+        <v>584.1444140120024</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1441,28 +1441,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>167.1104927403377</v>
+        <v>245.8721901131007</v>
       </c>
       <c r="C37">
-        <v>6.395588133266734</v>
+        <v>9.409925347004098</v>
       </c>
       <c r="D37">
-        <v>50.86261986739304</v>
+        <v>74.83494026385189</v>
       </c>
       <c r="E37">
-        <v>48.54353729314361</v>
+        <v>71.4228390712007</v>
       </c>
       <c r="F37">
-        <v>16.20942462539728</v>
+        <v>23.84917109491374</v>
       </c>
       <c r="G37">
-        <v>15.00481259040075</v>
+        <v>22.07680722700623</v>
       </c>
       <c r="H37">
-        <v>3.262092893303126</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I37">
-        <v>307.3885681432423</v>
+        <v>452.2654396246999</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1470,28 +1470,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>128.5973920395477</v>
+        <v>189.2072837863425</v>
       </c>
       <c r="C38">
-        <v>10.9638653713144</v>
+        <v>16.13130059486417</v>
       </c>
       <c r="D38">
-        <v>29.91918815729003</v>
+        <v>44.02055309638349</v>
       </c>
       <c r="E38">
-        <v>24.2717686465718</v>
+        <v>35.71141953560035</v>
       </c>
       <c r="F38">
-        <v>12.05316190093644</v>
+        <v>17.73399901929483</v>
       </c>
       <c r="G38">
-        <v>15.00481259040075</v>
+        <v>22.07680722700623</v>
       </c>
       <c r="H38">
-        <v>1.631046446651563</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I38">
-        <v>222.4412351527127</v>
+        <v>327.2811465133029</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1499,28 +1499,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>80.33204695529587</v>
+        <v>118.1937531107487</v>
       </c>
       <c r="C39">
-        <v>8.679726752290566</v>
+        <v>12.77061297093413</v>
       </c>
       <c r="D39">
-        <v>20.94343171010302</v>
+        <v>30.81438716746842</v>
       </c>
       <c r="E39">
-        <v>10.61889878287517</v>
+        <v>15.62374604682515</v>
       </c>
       <c r="F39">
-        <v>6.234394086691261</v>
+        <v>9.172758113428358</v>
       </c>
       <c r="G39">
-        <v>10.00320839360051</v>
+        <v>14.71787148467082</v>
       </c>
       <c r="H39">
-        <v>0.8155232233257815</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I39">
-        <v>137.6272299041822</v>
+        <v>202.4930205209812</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1528,28 +1528,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>60.99285046605797</v>
+        <v>89.73970143593884</v>
       </c>
       <c r="C40">
-        <v>18.72993667599543</v>
+        <v>27.55763851622629</v>
       </c>
       <c r="D40">
-        <v>16.45555348650951</v>
+        <v>24.2113042030109</v>
       </c>
       <c r="E40">
-        <v>6.067942161642951</v>
+        <v>8.927854883900087</v>
       </c>
       <c r="F40">
-        <v>5.818767814245177</v>
+        <v>8.56124090586647</v>
       </c>
       <c r="G40">
-        <v>18.33921538826759</v>
+        <v>26.98276438856317</v>
       </c>
       <c r="H40">
-        <v>1.631046446651563</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I40">
-        <v>128.0353124393702</v>
+        <v>188.380287587317</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1557,28 +1557,28 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>43.6371613090496</v>
+        <v>64.20401403546843</v>
       </c>
       <c r="C41">
-        <v>14.16165943794777</v>
+        <v>20.83626326836622</v>
       </c>
       <c r="D41">
-        <v>10.47171585505151</v>
+        <v>15.40719358373421</v>
       </c>
       <c r="E41">
-        <v>1.516985540410738</v>
+        <v>2.231963720975022</v>
       </c>
       <c r="F41">
-        <v>10.3906568111521</v>
+        <v>15.28793018904727</v>
       </c>
       <c r="G41">
-        <v>18.33921538826759</v>
+        <v>26.98276438856317</v>
       </c>
       <c r="H41">
-        <v>0.8155232233257815</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I41">
-        <v>99.33291756520509</v>
+        <v>146.15002081306</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1586,25 +1586,25 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>32.23199414872984</v>
+        <v>47.42341945801645</v>
       </c>
       <c r="C42">
-        <v>8.2228990284858</v>
+        <v>12.09847544614813</v>
       </c>
       <c r="D42">
-        <v>16.45555348650951</v>
+        <v>24.2113042030109</v>
       </c>
       <c r="E42">
-        <v>3.033971080821475</v>
+        <v>4.463927441950044</v>
       </c>
       <c r="F42">
-        <v>5.403141541799093</v>
+        <v>7.949723698304579</v>
       </c>
       <c r="G42">
-        <v>16.67201398933418</v>
+        <v>24.52978580778471</v>
       </c>
       <c r="I42">
-        <v>82.01957327567989</v>
+        <v>120.6766360552148</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1612,28 +1612,28 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>25.28971848592649</v>
+        <v>37.2091444978283</v>
       </c>
       <c r="C43">
-        <v>7.309243580876266</v>
+        <v>10.75420039657611</v>
       </c>
       <c r="D43">
-        <v>16.45555348650951</v>
+        <v>24.2113042030109</v>
       </c>
       <c r="E43">
-        <v>3.033971080821475</v>
+        <v>4.463927441950044</v>
       </c>
       <c r="F43">
-        <v>6.650020359137345</v>
+        <v>9.78427532099025</v>
       </c>
       <c r="G43">
-        <v>23.34081958506784</v>
+        <v>34.34170013089857</v>
       </c>
       <c r="H43">
-        <v>0.8155232233257815</v>
+        <v>1.199891626905629</v>
       </c>
       <c r="I43">
-        <v>82.89484980166471</v>
+        <v>121.9644436181598</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>41.6536539768201</v>
+        <v>61.28564976112892</v>
       </c>
       <c r="C44">
-        <v>5.938760409461968</v>
+        <v>8.737787822218092</v>
       </c>
       <c r="D44">
-        <v>17.95151289437402</v>
+        <v>26.41233185783008</v>
       </c>
       <c r="E44">
-        <v>4.550956621232215</v>
+        <v>6.695891162925068</v>
       </c>
       <c r="F44">
-        <v>18.2875559876277</v>
+        <v>26.90675713272319</v>
       </c>
       <c r="G44">
-        <v>23.34081958506784</v>
+        <v>34.34170013089857</v>
       </c>
       <c r="I44">
-        <v>111.7232594745839</v>
+        <v>164.3801178677239</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>99.01007433379061</v>
+        <v>145.6750166941121</v>
       </c>
       <c r="C45">
-        <v>5.025104961852432</v>
+        <v>7.393512772646078</v>
       </c>
       <c r="D45">
-        <v>28.42322874942553</v>
+        <v>41.81952544156431</v>
       </c>
       <c r="E45">
-        <v>48.54353729314361</v>
+        <v>71.4228390712007</v>
       </c>
       <c r="F45">
-        <v>39.90012215482407</v>
+        <v>58.70565192594151</v>
       </c>
       <c r="G45">
-        <v>50.01604196800251</v>
+        <v>73.58935742335413</v>
       </c>
       <c r="H45">
-        <v>1.631046446651563</v>
+        <v>2.399783253811258</v>
       </c>
       <c r="I45">
-        <v>272.5491559076904</v>
+        <v>401.0056865826301</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>180.9950440659444</v>
+        <v>266.300740033477</v>
       </c>
       <c r="C46">
-        <v>5.025104961852432</v>
+        <v>7.393512772646078</v>
       </c>
       <c r="D46">
-        <v>61.33433572244456</v>
+        <v>90.2421338475861</v>
       </c>
       <c r="E46">
-        <v>148.6645829602523</v>
+        <v>218.7324446555522</v>
       </c>
       <c r="F46">
-        <v>50.70640523842226</v>
+        <v>74.60509932255066</v>
       </c>
       <c r="G46">
-        <v>98.36488253707164</v>
+        <v>144.7257362659297</v>
       </c>
       <c r="H46">
-        <v>3.262092893303126</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I46">
-        <v>548.3524483792908</v>
+        <v>806.7992334053645</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>247.1119551402621</v>
+        <v>363.5795491781259</v>
       </c>
       <c r="C47">
-        <v>7.766071304681033</v>
+        <v>11.42633792136212</v>
       </c>
       <c r="D47">
-        <v>77.78988920895405</v>
+        <v>114.453438050597</v>
       </c>
       <c r="E47">
-        <v>118.3248721520376</v>
+        <v>174.0931702360517</v>
       </c>
       <c r="F47">
-        <v>52.78453660065266</v>
+        <v>77.66268536036013</v>
       </c>
       <c r="G47">
-        <v>80.02566714880405</v>
+        <v>117.7429718773666</v>
       </c>
       <c r="H47">
-        <v>5.708662563280472</v>
+        <v>8.399241388339403</v>
       </c>
       <c r="I47">
-        <v>589.5116541186718</v>
+        <v>867.3573940122029</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>272.7322581815602</v>
+        <v>401.2750877216778</v>
       </c>
       <c r="C48">
-        <v>11.42069309511916</v>
+        <v>16.80343811965018</v>
       </c>
       <c r="D48">
-        <v>89.75756447187008</v>
+        <v>132.0616592891504</v>
       </c>
       <c r="E48">
-        <v>60.67942161642953</v>
+        <v>89.2785488390009</v>
       </c>
       <c r="F48">
-        <v>65.25332477403519</v>
+        <v>96.00820158721685</v>
       </c>
       <c r="G48">
-        <v>83.36006994667088</v>
+        <v>122.6489290389235</v>
       </c>
       <c r="H48">
-        <v>7.339709009932033</v>
+        <v>10.79902464215066</v>
       </c>
       <c r="I48">
-        <v>590.543041095617</v>
+        <v>868.8748892377703</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>229.4256814278822</v>
+        <v>337.5574677319324</v>
       </c>
       <c r="C49">
-        <v>22.38455846643357</v>
+        <v>32.93473871451435</v>
       </c>
       <c r="D49">
-        <v>101.7252397347861</v>
+        <v>149.6698805277038</v>
       </c>
       <c r="E49">
-        <v>40.95860959108992</v>
+        <v>60.26302046632561</v>
       </c>
       <c r="F49">
-        <v>80.21587058209423</v>
+        <v>118.0228210594449</v>
       </c>
       <c r="G49">
-        <v>111.7024937285389</v>
+        <v>164.3495649121575</v>
       </c>
       <c r="H49">
-        <v>3.262092893303126</v>
+        <v>4.799566507622516</v>
       </c>
       <c r="I49">
-        <v>589.674546424128</v>
+        <v>867.5970599197012</v>
       </c>
     </row>
   </sheetData>
